--- a/Project_Design/프로젝트 공정관리/프로젝트 공정 관리.xlsx
+++ b/Project_Design/프로젝트 공정관리/프로젝트 공정 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 기능 정의서" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="96">
+  <fonts count="100">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -1805,8 +1805,30 @@
       <name val="나눔고딕"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="배달의민족 주아"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2065,6 +2087,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.150000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.049990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2772,7 +2806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="615">
+  <cellXfs count="631">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4569,6 +4603,54 @@
     </xf>
     <xf numFmtId="14" fontId="81" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="44" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="81" fillId="44" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="45" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="81" fillId="45" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="42" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="97" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="45" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="97" fillId="45" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="42" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="42" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="42" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="99" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="45" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="99" fillId="45" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="42" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="42" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -6788,8 +6870,12 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="13" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -6798,7 +6884,8 @@
     <col min="2" max="2" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="38" width="17.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="38" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="6" style="39" width="40.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="39" width="40.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="39" width="25.22722265" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="40" width="10.11611101" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="40" width="6.56055567" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="40" width="4.89388869" customWidth="1" outlineLevel="0"/>
@@ -7658,34 +7745,34 @@
       <c r="E4" s="403" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="601" t="s">
+      <c r="F4" s="625" t="s">
         <v>383</v>
       </c>
-      <c r="G4" s="614">
+      <c r="G4" s="626">
         <v>44677</v>
       </c>
-      <c r="H4" s="612">
+      <c r="H4" s="627">
         <f>SUM(I4:K4)</f>
         <v>26</v>
       </c>
-      <c r="I4" s="612">
-        <v>0</v>
-      </c>
-      <c r="J4" s="612">
-        <v>0</v>
-      </c>
-      <c r="K4" s="612">
+      <c r="I4" s="627">
+        <v>0</v>
+      </c>
+      <c r="J4" s="627">
+        <v>0</v>
+      </c>
+      <c r="K4" s="627">
         <v>26</v>
       </c>
-      <c r="L4" s="613">
+      <c r="L4" s="628">
         <f>I4/H4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="613">
+      <c r="M4" s="628">
         <f>J4/H4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="613">
+      <c r="N4" s="628">
         <f>K4/H4</f>
         <v>1</v>
       </c>
@@ -7702,32 +7789,32 @@
       <c r="E5" s="403" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="602"/>
-      <c r="G5" s="614">
+      <c r="F5" s="629"/>
+      <c r="G5" s="626">
         <v>44678</v>
       </c>
-      <c r="H5" s="612">
+      <c r="H5" s="627">
         <f>SUM(I5:K5)</f>
         <v>26</v>
       </c>
-      <c r="I5" s="612">
-        <v>0</v>
-      </c>
-      <c r="J5" s="612">
-        <v>0</v>
-      </c>
-      <c r="K5" s="612">
+      <c r="I5" s="627">
+        <v>0</v>
+      </c>
+      <c r="J5" s="627">
+        <v>0</v>
+      </c>
+      <c r="K5" s="627">
         <v>26</v>
       </c>
-      <c r="L5" s="613">
+      <c r="L5" s="628">
         <f>I5/H5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="613">
+      <c r="M5" s="628">
         <f>J5/H5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="613">
+      <c r="N5" s="628">
         <f>K5/H5</f>
         <v>1</v>
       </c>
@@ -7744,32 +7831,32 @@
       <c r="E6" s="403" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="602"/>
-      <c r="G6" s="614">
+      <c r="F6" s="629"/>
+      <c r="G6" s="626">
         <v>44679</v>
       </c>
-      <c r="H6" s="612">
+      <c r="H6" s="627">
         <f>SUM(I6:K6)</f>
         <v>26</v>
       </c>
-      <c r="I6" s="612">
-        <v>0</v>
-      </c>
-      <c r="J6" s="612">
-        <v>0</v>
-      </c>
-      <c r="K6" s="612">
+      <c r="I6" s="627">
+        <v>0</v>
+      </c>
+      <c r="J6" s="627">
+        <v>0</v>
+      </c>
+      <c r="K6" s="627">
         <v>26</v>
       </c>
-      <c r="L6" s="613">
+      <c r="L6" s="628">
         <f>I6/H6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="613">
+      <c r="M6" s="628">
         <f>J6/H6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="613">
+      <c r="N6" s="628">
         <f>K6/H6</f>
         <v>1</v>
       </c>
@@ -7786,32 +7873,32 @@
       <c r="E7" s="403" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="602"/>
-      <c r="G7" s="614">
+      <c r="F7" s="629"/>
+      <c r="G7" s="626">
         <v>44680</v>
       </c>
-      <c r="H7" s="612">
+      <c r="H7" s="627">
         <f>SUM(I7:K7)</f>
         <v>26</v>
       </c>
-      <c r="I7" s="612">
-        <v>0</v>
-      </c>
-      <c r="J7" s="612">
-        <v>0</v>
-      </c>
-      <c r="K7" s="612">
+      <c r="I7" s="627">
+        <v>0</v>
+      </c>
+      <c r="J7" s="627">
+        <v>0</v>
+      </c>
+      <c r="K7" s="627">
         <v>26</v>
       </c>
-      <c r="L7" s="613">
+      <c r="L7" s="628">
         <f>I7/H7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="613">
+      <c r="M7" s="628">
         <f>J7/H7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="613">
+      <c r="N7" s="628">
         <f>K7/H7</f>
         <v>1</v>
       </c>
@@ -7828,31 +7915,31 @@
       <c r="E8" s="403" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="602"/>
-      <c r="G8" s="614">
+      <c r="F8" s="629"/>
+      <c r="G8" s="626">
         <v>44681</v>
       </c>
-      <c r="H8" s="612">
+      <c r="H8" s="627">
         <f>SUM(I8:K8)</f>
         <v>26</v>
       </c>
-      <c r="I8" s="612">
-        <v>0</v>
-      </c>
-      <c r="J8" s="612">
-        <v>0</v>
-      </c>
-      <c r="K8" s="612">
+      <c r="I8" s="627">
+        <v>0</v>
+      </c>
+      <c r="J8" s="627">
+        <v>0</v>
+      </c>
+      <c r="K8" s="627">
         <v>26</v>
       </c>
-      <c r="L8" s="613">
-        <v>0</v>
-      </c>
-      <c r="M8" s="613">
+      <c r="L8" s="628">
+        <v>0</v>
+      </c>
+      <c r="M8" s="628">
         <f>J8/H8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="613">
+      <c r="N8" s="628">
         <f>K8/H8</f>
         <v>1</v>
       </c>
@@ -7869,32 +7956,32 @@
       <c r="E9" s="403" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="602"/>
-      <c r="G9" s="614">
+      <c r="F9" s="629"/>
+      <c r="G9" s="626">
         <v>44682</v>
       </c>
-      <c r="H9" s="612">
+      <c r="H9" s="627">
         <f>SUM(I9:K9)</f>
         <v>26</v>
       </c>
-      <c r="I9" s="612">
-        <v>0</v>
-      </c>
-      <c r="J9" s="612">
-        <v>0</v>
-      </c>
-      <c r="K9" s="612">
+      <c r="I9" s="627">
+        <v>0</v>
+      </c>
+      <c r="J9" s="627">
+        <v>0</v>
+      </c>
+      <c r="K9" s="627">
         <v>26</v>
       </c>
-      <c r="L9" s="613">
+      <c r="L9" s="628">
         <f>I9/H9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="613">
+      <c r="M9" s="628">
         <f>J9/H9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="613">
+      <c r="N9" s="628">
         <f>K9/H9</f>
         <v>1</v>
       </c>
@@ -7911,32 +7998,32 @@
       <c r="E10" s="403" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="603"/>
-      <c r="G10" s="614">
+      <c r="F10" s="630"/>
+      <c r="G10" s="626">
         <v>44683</v>
       </c>
-      <c r="H10" s="612">
+      <c r="H10" s="627">
         <f>SUM(I10:K10)</f>
         <v>26</v>
       </c>
-      <c r="I10" s="612">
-        <v>0</v>
-      </c>
-      <c r="J10" s="612">
-        <v>0</v>
-      </c>
-      <c r="K10" s="612">
+      <c r="I10" s="627">
+        <v>0</v>
+      </c>
+      <c r="J10" s="627">
+        <v>0</v>
+      </c>
+      <c r="K10" s="627">
         <v>26</v>
       </c>
-      <c r="L10" s="613">
+      <c r="L10" s="628">
         <f>I10/H10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="613">
+      <c r="M10" s="628">
         <f>J10/H10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="613">
+      <c r="N10" s="628">
         <f>K10/H10</f>
         <v>1</v>
       </c>
@@ -7959,28 +8046,28 @@
       <c r="G11" s="614">
         <v>44684</v>
       </c>
-      <c r="H11" s="612">
+      <c r="H11" s="617">
         <f>SUM(I11:K11)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="612">
-        <v>0</v>
-      </c>
-      <c r="J11" s="612">
-        <v>0</v>
-      </c>
-      <c r="K11" s="612">
+      <c r="I11" s="617">
+        <v>0</v>
+      </c>
+      <c r="J11" s="617">
+        <v>0</v>
+      </c>
+      <c r="K11" s="617">
         <v>26</v>
       </c>
-      <c r="L11" s="613">
+      <c r="L11" s="618">
         <f>I11/H11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="613">
+      <c r="M11" s="618">
         <f>J11/H11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="613">
+      <c r="N11" s="618">
         <f>K11/H11</f>
         <v>1</v>
       </c>
@@ -8003,28 +8090,28 @@
       <c r="G12" s="614">
         <v>44685</v>
       </c>
-      <c r="H12" s="612">
+      <c r="H12" s="617">
         <f>SUM(I12:K12)</f>
         <v>26</v>
       </c>
-      <c r="I12" s="612">
-        <v>0</v>
-      </c>
-      <c r="J12" s="612">
-        <v>0</v>
-      </c>
-      <c r="K12" s="612">
+      <c r="I12" s="617">
+        <v>0</v>
+      </c>
+      <c r="J12" s="617">
+        <v>0</v>
+      </c>
+      <c r="K12" s="617">
         <v>26</v>
       </c>
-      <c r="L12" s="613">
+      <c r="L12" s="618">
         <f>I12/H12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="613">
+      <c r="M12" s="618">
         <f>J12/H12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="613">
+      <c r="N12" s="618">
         <f>K12/H12</f>
         <v>1</v>
       </c>
@@ -8045,28 +8132,28 @@
       <c r="G13" s="614">
         <v>44686</v>
       </c>
-      <c r="H13" s="612">
+      <c r="H13" s="617">
         <f>SUM(I13:K13)</f>
         <v>26</v>
       </c>
-      <c r="I13" s="612">
-        <v>0</v>
-      </c>
-      <c r="J13" s="612">
-        <v>0</v>
-      </c>
-      <c r="K13" s="612">
+      <c r="I13" s="617">
+        <v>0</v>
+      </c>
+      <c r="J13" s="617">
+        <v>0</v>
+      </c>
+      <c r="K13" s="617">
         <v>26</v>
       </c>
-      <c r="L13" s="613">
+      <c r="L13" s="618">
         <f>I13/H13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="613">
+      <c r="M13" s="618">
         <f>J13/H13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="613">
+      <c r="N13" s="618">
         <f>K13/H13</f>
         <v>1</v>
       </c>
@@ -8087,28 +8174,28 @@
       <c r="G14" s="614">
         <v>44687</v>
       </c>
-      <c r="H14" s="612">
+      <c r="H14" s="617">
         <f>SUM(I14:K14)</f>
         <v>26</v>
       </c>
-      <c r="I14" s="612">
-        <v>0</v>
-      </c>
-      <c r="J14" s="612">
-        <v>0</v>
-      </c>
-      <c r="K14" s="612">
+      <c r="I14" s="617">
+        <v>0</v>
+      </c>
+      <c r="J14" s="617">
+        <v>0</v>
+      </c>
+      <c r="K14" s="617">
         <v>26</v>
       </c>
-      <c r="L14" s="613">
+      <c r="L14" s="618">
         <f>I14/H14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="613">
+      <c r="M14" s="618">
         <f>J14/H14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="613">
+      <c r="N14" s="618">
         <f>K14/H14</f>
         <v>1</v>
       </c>
@@ -8129,28 +8216,28 @@
       <c r="G15" s="614">
         <v>44688</v>
       </c>
-      <c r="H15" s="612">
+      <c r="H15" s="617">
         <f>SUM(I15:K15)</f>
         <v>26</v>
       </c>
-      <c r="I15" s="612">
-        <v>0</v>
-      </c>
-      <c r="J15" s="612">
-        <v>0</v>
-      </c>
-      <c r="K15" s="612">
+      <c r="I15" s="617">
+        <v>0</v>
+      </c>
+      <c r="J15" s="617">
+        <v>0</v>
+      </c>
+      <c r="K15" s="617">
         <v>26</v>
       </c>
-      <c r="L15" s="613">
+      <c r="L15" s="618">
         <f>I15/H15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="613">
+      <c r="M15" s="618">
         <f>J15/H15</f>
         <v>0</v>
       </c>
-      <c r="N15" s="613">
+      <c r="N15" s="618">
         <f>K15/H15</f>
         <v>1</v>
       </c>
@@ -8171,28 +8258,28 @@
       <c r="G16" s="614">
         <v>44689</v>
       </c>
-      <c r="H16" s="612">
+      <c r="H16" s="617">
         <f>SUM(I16:K16)</f>
         <v>26</v>
       </c>
-      <c r="I16" s="612">
-        <v>0</v>
-      </c>
-      <c r="J16" s="612">
-        <v>0</v>
-      </c>
-      <c r="K16" s="612">
+      <c r="I16" s="617">
+        <v>0</v>
+      </c>
+      <c r="J16" s="617">
+        <v>0</v>
+      </c>
+      <c r="K16" s="617">
         <v>26</v>
       </c>
-      <c r="L16" s="613">
+      <c r="L16" s="618">
         <f>I16/H16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="613">
+      <c r="M16" s="618">
         <f>J16/H16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="613">
+      <c r="N16" s="618">
         <f>K16/H16</f>
         <v>1</v>
       </c>
@@ -8213,28 +8300,28 @@
       <c r="G17" s="614">
         <v>44690</v>
       </c>
-      <c r="H17" s="612">
+      <c r="H17" s="617">
         <f>SUM(I17:K17)</f>
         <v>26</v>
       </c>
-      <c r="I17" s="612">
-        <v>0</v>
-      </c>
-      <c r="J17" s="612">
-        <v>0</v>
-      </c>
-      <c r="K17" s="612">
+      <c r="I17" s="617">
+        <v>0</v>
+      </c>
+      <c r="J17" s="617">
+        <v>0</v>
+      </c>
+      <c r="K17" s="617">
         <v>26</v>
       </c>
-      <c r="L17" s="613">
+      <c r="L17" s="618">
         <f>I17/H17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="613">
+      <c r="M17" s="618">
         <f>J17/H17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="613">
+      <c r="N17" s="618">
         <f>K17/H17</f>
         <v>1</v>
       </c>
@@ -8257,28 +8344,28 @@
       <c r="G18" s="614">
         <v>44691</v>
       </c>
-      <c r="H18" s="612">
+      <c r="H18" s="617">
         <f>SUM(I18:K18)</f>
         <v>26</v>
       </c>
-      <c r="I18" s="612">
-        <v>0</v>
-      </c>
-      <c r="J18" s="612">
-        <v>0</v>
-      </c>
-      <c r="K18" s="612">
+      <c r="I18" s="617">
+        <v>0</v>
+      </c>
+      <c r="J18" s="617">
+        <v>0</v>
+      </c>
+      <c r="K18" s="617">
         <v>26</v>
       </c>
-      <c r="L18" s="613">
+      <c r="L18" s="618">
         <f>I18/H18</f>
         <v>0</v>
       </c>
-      <c r="M18" s="613">
+      <c r="M18" s="618">
         <f>J18/H18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="613">
+      <c r="N18" s="618">
         <f>K18/H18</f>
         <v>1</v>
       </c>
@@ -8301,28 +8388,28 @@
       <c r="G19" s="614">
         <v>44692</v>
       </c>
-      <c r="H19" s="612">
+      <c r="H19" s="617">
         <f>SUM(I19:K19)</f>
         <v>26</v>
       </c>
-      <c r="I19" s="612">
-        <v>0</v>
-      </c>
-      <c r="J19" s="612">
-        <v>0</v>
-      </c>
-      <c r="K19" s="612">
+      <c r="I19" s="617">
+        <v>0</v>
+      </c>
+      <c r="J19" s="617">
+        <v>0</v>
+      </c>
+      <c r="K19" s="617">
         <v>26</v>
       </c>
-      <c r="L19" s="613">
+      <c r="L19" s="618">
         <f>I19/H19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="613">
+      <c r="M19" s="618">
         <f>J19/H19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="613">
+      <c r="N19" s="618">
         <f>K19/H19</f>
         <v>1</v>
       </c>
@@ -8343,28 +8430,28 @@
       <c r="G20" s="614">
         <v>44693</v>
       </c>
-      <c r="H20" s="612">
+      <c r="H20" s="617">
         <f>SUM(I20:K20)</f>
         <v>26</v>
       </c>
-      <c r="I20" s="612">
-        <v>0</v>
-      </c>
-      <c r="J20" s="612">
-        <v>0</v>
-      </c>
-      <c r="K20" s="612">
+      <c r="I20" s="617">
+        <v>0</v>
+      </c>
+      <c r="J20" s="617">
+        <v>0</v>
+      </c>
+      <c r="K20" s="617">
         <v>26</v>
       </c>
-      <c r="L20" s="613">
+      <c r="L20" s="618">
         <f>I20/H20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="613">
+      <c r="M20" s="618">
         <f>J20/H20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="613">
+      <c r="N20" s="618">
         <f>K20/H20</f>
         <v>1</v>
       </c>
@@ -8385,28 +8472,28 @@
       <c r="G21" s="614">
         <v>44694</v>
       </c>
-      <c r="H21" s="612">
+      <c r="H21" s="617">
         <f>SUM(I21:K21)</f>
         <v>26</v>
       </c>
-      <c r="I21" s="612">
-        <v>0</v>
-      </c>
-      <c r="J21" s="612">
-        <v>0</v>
-      </c>
-      <c r="K21" s="612">
+      <c r="I21" s="617">
+        <v>0</v>
+      </c>
+      <c r="J21" s="617">
+        <v>0</v>
+      </c>
+      <c r="K21" s="617">
         <v>26</v>
       </c>
-      <c r="L21" s="613">
+      <c r="L21" s="618">
         <f>I21/H21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="613">
+      <c r="M21" s="618">
         <f>J21/H21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="613">
+      <c r="N21" s="618">
         <f>K21/H21</f>
         <v>1</v>
       </c>
@@ -8427,28 +8514,28 @@
       <c r="G22" s="614">
         <v>44695</v>
       </c>
-      <c r="H22" s="612">
+      <c r="H22" s="617">
         <f>SUM(I22:K22)</f>
         <v>26</v>
       </c>
-      <c r="I22" s="612">
-        <v>0</v>
-      </c>
-      <c r="J22" s="612">
-        <v>0</v>
-      </c>
-      <c r="K22" s="612">
+      <c r="I22" s="617">
+        <v>0</v>
+      </c>
+      <c r="J22" s="617">
+        <v>0</v>
+      </c>
+      <c r="K22" s="617">
         <v>26</v>
       </c>
-      <c r="L22" s="613">
+      <c r="L22" s="618">
         <f>I22/H22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="613">
+      <c r="M22" s="618">
         <f>J22/H22</f>
         <v>0</v>
       </c>
-      <c r="N22" s="613">
+      <c r="N22" s="618">
         <f>K22/H22</f>
         <v>1</v>
       </c>
@@ -8469,28 +8556,28 @@
       <c r="G23" s="614">
         <v>44696</v>
       </c>
-      <c r="H23" s="612">
+      <c r="H23" s="617">
         <f>SUM(I23:K23)</f>
         <v>26</v>
       </c>
-      <c r="I23" s="612">
-        <v>0</v>
-      </c>
-      <c r="J23" s="612">
-        <v>0</v>
-      </c>
-      <c r="K23" s="612">
+      <c r="I23" s="617">
+        <v>0</v>
+      </c>
+      <c r="J23" s="617">
+        <v>0</v>
+      </c>
+      <c r="K23" s="617">
         <v>26</v>
       </c>
-      <c r="L23" s="613">
+      <c r="L23" s="618">
         <f>I23/H23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="613">
+      <c r="M23" s="618">
         <f>J23/H23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="613">
+      <c r="N23" s="618">
         <f>K23/H23</f>
         <v>1</v>
       </c>
@@ -8511,28 +8598,28 @@
       <c r="G24" s="614">
         <v>44697</v>
       </c>
-      <c r="H24" s="612">
+      <c r="H24" s="617">
         <f>SUM(I24:K24)</f>
         <v>26</v>
       </c>
-      <c r="I24" s="612">
-        <v>0</v>
-      </c>
-      <c r="J24" s="612">
-        <v>0</v>
-      </c>
-      <c r="K24" s="612">
+      <c r="I24" s="617">
+        <v>0</v>
+      </c>
+      <c r="J24" s="617">
+        <v>0</v>
+      </c>
+      <c r="K24" s="617">
         <v>26</v>
       </c>
-      <c r="L24" s="613">
+      <c r="L24" s="618">
         <f>I24/H24</f>
         <v>0</v>
       </c>
-      <c r="M24" s="613">
+      <c r="M24" s="618">
         <f>J24/H24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="613">
+      <c r="N24" s="618">
         <f>K24/H24</f>
         <v>1</v>
       </c>
@@ -8555,28 +8642,28 @@
       <c r="G25" s="614">
         <v>44698</v>
       </c>
-      <c r="H25" s="612">
+      <c r="H25" s="617">
         <f>SUM(I25:K25)</f>
         <v>26</v>
       </c>
-      <c r="I25" s="612">
-        <v>0</v>
-      </c>
-      <c r="J25" s="612">
-        <v>0</v>
-      </c>
-      <c r="K25" s="612">
+      <c r="I25" s="617">
+        <v>0</v>
+      </c>
+      <c r="J25" s="617">
+        <v>0</v>
+      </c>
+      <c r="K25" s="617">
         <v>26</v>
       </c>
-      <c r="L25" s="613">
+      <c r="L25" s="618">
         <f>I25/H25</f>
         <v>0</v>
       </c>
-      <c r="M25" s="613">
+      <c r="M25" s="618">
         <f>J25/H25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="613">
+      <c r="N25" s="618">
         <f>K25/H25</f>
         <v>1</v>
       </c>
@@ -8597,28 +8684,28 @@
       <c r="G26" s="614">
         <v>44699</v>
       </c>
-      <c r="H26" s="612">
+      <c r="H26" s="617">
         <f>SUM(I26:K26)</f>
         <v>26</v>
       </c>
-      <c r="I26" s="612">
-        <v>0</v>
-      </c>
-      <c r="J26" s="612">
-        <v>0</v>
-      </c>
-      <c r="K26" s="612">
+      <c r="I26" s="617">
+        <v>0</v>
+      </c>
+      <c r="J26" s="617">
+        <v>0</v>
+      </c>
+      <c r="K26" s="617">
         <v>26</v>
       </c>
-      <c r="L26" s="613">
+      <c r="L26" s="618">
         <f>I26/H26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="613">
+      <c r="M26" s="618">
         <f>J26/H26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="613">
+      <c r="N26" s="618">
         <f>K26/H26</f>
         <v>1</v>
       </c>
@@ -8639,28 +8726,28 @@
       <c r="G27" s="614">
         <v>44700</v>
       </c>
-      <c r="H27" s="612">
+      <c r="H27" s="617">
         <f>SUM(I27:K27)</f>
         <v>26</v>
       </c>
-      <c r="I27" s="612">
-        <v>0</v>
-      </c>
-      <c r="J27" s="612">
-        <v>0</v>
-      </c>
-      <c r="K27" s="612">
+      <c r="I27" s="617">
+        <v>0</v>
+      </c>
+      <c r="J27" s="617">
+        <v>0</v>
+      </c>
+      <c r="K27" s="617">
         <v>26</v>
       </c>
-      <c r="L27" s="613">
+      <c r="L27" s="618">
         <f>I27/H27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="613">
+      <c r="M27" s="618">
         <f>J27/H27</f>
         <v>0</v>
       </c>
-      <c r="N27" s="613">
+      <c r="N27" s="618">
         <f>K27/H27</f>
         <v>1</v>
       </c>
@@ -8683,28 +8770,28 @@
       <c r="G28" s="614">
         <v>44701</v>
       </c>
-      <c r="H28" s="612">
+      <c r="H28" s="617">
         <f>SUM(I28:K28)</f>
         <v>26</v>
       </c>
-      <c r="I28" s="612">
-        <v>0</v>
-      </c>
-      <c r="J28" s="612">
-        <v>0</v>
-      </c>
-      <c r="K28" s="612">
+      <c r="I28" s="617">
+        <v>0</v>
+      </c>
+      <c r="J28" s="617">
+        <v>0</v>
+      </c>
+      <c r="K28" s="617">
         <v>26</v>
       </c>
-      <c r="L28" s="613">
+      <c r="L28" s="618">
         <f>I28/H28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="613">
+      <c r="M28" s="618">
         <f>J28/H28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="613">
+      <c r="N28" s="618">
         <f>K28/H28</f>
         <v>1</v>
       </c>
@@ -8727,28 +8814,28 @@
       <c r="G29" s="614">
         <v>44702</v>
       </c>
-      <c r="H29" s="612">
+      <c r="H29" s="617">
         <f>SUM(I29:K29)</f>
         <v>26</v>
       </c>
-      <c r="I29" s="612">
-        <v>0</v>
-      </c>
-      <c r="J29" s="612">
-        <v>0</v>
-      </c>
-      <c r="K29" s="612">
+      <c r="I29" s="617">
+        <v>0</v>
+      </c>
+      <c r="J29" s="617">
+        <v>0</v>
+      </c>
+      <c r="K29" s="617">
         <v>26</v>
       </c>
-      <c r="L29" s="613">
+      <c r="L29" s="618">
         <f>I29/H29</f>
         <v>0</v>
       </c>
-      <c r="M29" s="613">
+      <c r="M29" s="618">
         <f>J29/H29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="613">
+      <c r="N29" s="618">
         <f>K29/H29</f>
         <v>1</v>
       </c>
@@ -8763,28 +8850,28 @@
       <c r="G30" s="614">
         <v>44703</v>
       </c>
-      <c r="H30" s="612">
+      <c r="H30" s="617">
         <f>SUM(I30:K30)</f>
         <v>26</v>
       </c>
-      <c r="I30" s="612">
-        <v>0</v>
-      </c>
-      <c r="J30" s="612">
-        <v>0</v>
-      </c>
-      <c r="K30" s="612">
+      <c r="I30" s="617">
+        <v>0</v>
+      </c>
+      <c r="J30" s="617">
+        <v>0</v>
+      </c>
+      <c r="K30" s="617">
         <v>26</v>
       </c>
-      <c r="L30" s="613">
+      <c r="L30" s="618">
         <f>I30/H30</f>
         <v>0</v>
       </c>
-      <c r="M30" s="613">
+      <c r="M30" s="618">
         <f>J30/H30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="613">
+      <c r="N30" s="618">
         <f>K30/H30</f>
         <v>1</v>
       </c>
@@ -8799,28 +8886,28 @@
       <c r="G31" s="614">
         <v>44704</v>
       </c>
-      <c r="H31" s="612">
+      <c r="H31" s="617">
         <f>SUM(I31:K31)</f>
         <v>26</v>
       </c>
-      <c r="I31" s="612">
-        <v>0</v>
-      </c>
-      <c r="J31" s="612">
-        <v>0</v>
-      </c>
-      <c r="K31" s="612">
+      <c r="I31" s="617">
+        <v>0</v>
+      </c>
+      <c r="J31" s="617">
+        <v>0</v>
+      </c>
+      <c r="K31" s="617">
         <v>26</v>
       </c>
-      <c r="L31" s="613">
+      <c r="L31" s="618">
         <f>I31/H31</f>
         <v>0</v>
       </c>
-      <c r="M31" s="613">
+      <c r="M31" s="618">
         <f>J31/H31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="613">
+      <c r="N31" s="618">
         <f>K31/H31</f>
         <v>1</v>
       </c>
@@ -8837,28 +8924,28 @@
       <c r="G32" s="614">
         <v>44705</v>
       </c>
-      <c r="H32" s="612">
+      <c r="H32" s="617">
         <f>SUM(I32:K32)</f>
         <v>26</v>
       </c>
-      <c r="I32" s="612">
-        <v>0</v>
-      </c>
-      <c r="J32" s="612">
-        <v>0</v>
-      </c>
-      <c r="K32" s="612">
+      <c r="I32" s="617">
+        <v>0</v>
+      </c>
+      <c r="J32" s="617">
+        <v>0</v>
+      </c>
+      <c r="K32" s="617">
         <v>26</v>
       </c>
-      <c r="L32" s="613">
+      <c r="L32" s="618">
         <f>I32/H32</f>
         <v>0</v>
       </c>
-      <c r="M32" s="613">
+      <c r="M32" s="618">
         <f>J32/H32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="613">
+      <c r="N32" s="618">
         <f>K32/H32</f>
         <v>1</v>
       </c>
@@ -8873,28 +8960,28 @@
       <c r="G33" s="614">
         <v>44706</v>
       </c>
-      <c r="H33" s="612">
+      <c r="H33" s="617">
         <f>SUM(I33:K33)</f>
         <v>26</v>
       </c>
-      <c r="I33" s="612">
-        <v>0</v>
-      </c>
-      <c r="J33" s="612">
-        <v>0</v>
-      </c>
-      <c r="K33" s="612">
+      <c r="I33" s="617">
+        <v>0</v>
+      </c>
+      <c r="J33" s="617">
+        <v>0</v>
+      </c>
+      <c r="K33" s="617">
         <v>26</v>
       </c>
-      <c r="L33" s="613">
+      <c r="L33" s="618">
         <f>I33/H33</f>
         <v>0</v>
       </c>
-      <c r="M33" s="613">
+      <c r="M33" s="618">
         <f>J33/H33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="613">
+      <c r="N33" s="618">
         <f>K33/H33</f>
         <v>1</v>
       </c>
@@ -8909,28 +8996,28 @@
       <c r="G34" s="614">
         <v>44707</v>
       </c>
-      <c r="H34" s="612">
+      <c r="H34" s="617">
         <f>SUM(I34:K34)</f>
         <v>26</v>
       </c>
-      <c r="I34" s="612">
-        <v>0</v>
-      </c>
-      <c r="J34" s="612">
-        <v>0</v>
-      </c>
-      <c r="K34" s="612">
+      <c r="I34" s="617">
+        <v>0</v>
+      </c>
+      <c r="J34" s="617">
+        <v>0</v>
+      </c>
+      <c r="K34" s="617">
         <v>26</v>
       </c>
-      <c r="L34" s="613">
+      <c r="L34" s="618">
         <f>I34/H34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="613">
+      <c r="M34" s="618">
         <f>J34/H34</f>
         <v>0</v>
       </c>
-      <c r="N34" s="613">
+      <c r="N34" s="618">
         <f>K34/H34</f>
         <v>1</v>
       </c>
@@ -8945,28 +9032,28 @@
       <c r="G35" s="614">
         <v>44708</v>
       </c>
-      <c r="H35" s="612">
+      <c r="H35" s="617">
         <f>SUM(I35:K35)</f>
         <v>26</v>
       </c>
-      <c r="I35" s="612">
-        <v>0</v>
-      </c>
-      <c r="J35" s="612">
-        <v>0</v>
-      </c>
-      <c r="K35" s="612">
+      <c r="I35" s="617">
+        <v>0</v>
+      </c>
+      <c r="J35" s="617">
+        <v>0</v>
+      </c>
+      <c r="K35" s="617">
         <v>26</v>
       </c>
-      <c r="L35" s="613">
+      <c r="L35" s="618">
         <f>I35/H35</f>
         <v>0</v>
       </c>
-      <c r="M35" s="613">
+      <c r="M35" s="618">
         <f>J35/H35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="613">
+      <c r="N35" s="618">
         <f>K35/H35</f>
         <v>1</v>
       </c>
@@ -8981,28 +9068,28 @@
       <c r="G36" s="614">
         <v>44709</v>
       </c>
-      <c r="H36" s="612">
+      <c r="H36" s="617">
         <f>SUM(I36:K36)</f>
         <v>26</v>
       </c>
-      <c r="I36" s="612">
-        <v>0</v>
-      </c>
-      <c r="J36" s="612">
-        <v>0</v>
-      </c>
-      <c r="K36" s="612">
+      <c r="I36" s="617">
+        <v>0</v>
+      </c>
+      <c r="J36" s="617">
+        <v>0</v>
+      </c>
+      <c r="K36" s="617">
         <v>26</v>
       </c>
-      <c r="L36" s="613">
+      <c r="L36" s="618">
         <f>I36/H36</f>
         <v>0</v>
       </c>
-      <c r="M36" s="613">
+      <c r="M36" s="618">
         <f>J36/H36</f>
         <v>0</v>
       </c>
-      <c r="N36" s="613">
+      <c r="N36" s="618">
         <f>K36/H36</f>
         <v>1</v>
       </c>
@@ -9017,28 +9104,28 @@
       <c r="G37" s="614">
         <v>44710</v>
       </c>
-      <c r="H37" s="612">
+      <c r="H37" s="617">
         <f>SUM(I37:K37)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="612">
-        <v>0</v>
-      </c>
-      <c r="J37" s="612">
-        <v>0</v>
-      </c>
-      <c r="K37" s="612">
+      <c r="I37" s="617">
+        <v>0</v>
+      </c>
+      <c r="J37" s="617">
+        <v>0</v>
+      </c>
+      <c r="K37" s="617">
         <v>26</v>
       </c>
-      <c r="L37" s="613">
+      <c r="L37" s="618">
         <f>I37/H37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="613">
+      <c r="M37" s="618">
         <f>J37/H37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="613">
+      <c r="N37" s="618">
         <f>K37/H37</f>
         <v>1</v>
       </c>
@@ -9053,28 +9140,28 @@
       <c r="G38" s="614">
         <v>44711</v>
       </c>
-      <c r="H38" s="612">
+      <c r="H38" s="617">
         <f>SUM(I38:K38)</f>
         <v>26</v>
       </c>
-      <c r="I38" s="612">
-        <v>0</v>
-      </c>
-      <c r="J38" s="612">
-        <v>0</v>
-      </c>
-      <c r="K38" s="612">
+      <c r="I38" s="617">
+        <v>0</v>
+      </c>
+      <c r="J38" s="617">
+        <v>0</v>
+      </c>
+      <c r="K38" s="617">
         <v>26</v>
       </c>
-      <c r="L38" s="613">
+      <c r="L38" s="618">
         <f>I38/H38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="613">
+      <c r="M38" s="618">
         <f>J38/H38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="613">
+      <c r="N38" s="618">
         <f>K38/H38</f>
         <v>1</v>
       </c>
@@ -9091,28 +9178,28 @@
       <c r="G39" s="614">
         <v>44712</v>
       </c>
-      <c r="H39" s="612">
+      <c r="H39" s="617">
         <f>SUM(I39:K39)</f>
         <v>26</v>
       </c>
-      <c r="I39" s="612">
-        <v>0</v>
-      </c>
-      <c r="J39" s="612">
-        <v>0</v>
-      </c>
-      <c r="K39" s="612">
+      <c r="I39" s="617">
+        <v>0</v>
+      </c>
+      <c r="J39" s="617">
+        <v>0</v>
+      </c>
+      <c r="K39" s="617">
         <v>26</v>
       </c>
-      <c r="L39" s="613">
+      <c r="L39" s="618">
         <f>I39/H39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="613">
+      <c r="M39" s="618">
         <f>J39/H39</f>
         <v>0</v>
       </c>
-      <c r="N39" s="613">
+      <c r="N39" s="618">
         <f>K39/H39</f>
         <v>1</v>
       </c>
@@ -9127,28 +9214,28 @@
       <c r="G40" s="614">
         <v>44713</v>
       </c>
-      <c r="H40" s="612">
+      <c r="H40" s="617">
         <f>SUM(I40:K40)</f>
         <v>26</v>
       </c>
-      <c r="I40" s="612">
-        <v>0</v>
-      </c>
-      <c r="J40" s="612">
-        <v>0</v>
-      </c>
-      <c r="K40" s="612">
+      <c r="I40" s="617">
+        <v>0</v>
+      </c>
+      <c r="J40" s="617">
+        <v>0</v>
+      </c>
+      <c r="K40" s="617">
         <v>26</v>
       </c>
-      <c r="L40" s="613">
+      <c r="L40" s="618">
         <f>I40/H40</f>
         <v>0</v>
       </c>
-      <c r="M40" s="613">
+      <c r="M40" s="618">
         <f>J40/H40</f>
         <v>0</v>
       </c>
-      <c r="N40" s="613">
+      <c r="N40" s="618">
         <f>K40/H40</f>
         <v>1</v>
       </c>
@@ -9163,28 +9250,28 @@
       <c r="G41" s="614">
         <v>44714</v>
       </c>
-      <c r="H41" s="612">
+      <c r="H41" s="617">
         <f>SUM(I41:K41)</f>
         <v>26</v>
       </c>
-      <c r="I41" s="612">
-        <v>0</v>
-      </c>
-      <c r="J41" s="612">
-        <v>0</v>
-      </c>
-      <c r="K41" s="612">
+      <c r="I41" s="617">
+        <v>0</v>
+      </c>
+      <c r="J41" s="617">
+        <v>0</v>
+      </c>
+      <c r="K41" s="617">
         <v>26</v>
       </c>
-      <c r="L41" s="613">
+      <c r="L41" s="618">
         <f>I41/H41</f>
         <v>0</v>
       </c>
-      <c r="M41" s="613">
+      <c r="M41" s="618">
         <f>J41/H41</f>
         <v>0</v>
       </c>
-      <c r="N41" s="613">
+      <c r="N41" s="618">
         <f>K41/H41</f>
         <v>1</v>
       </c>
@@ -9199,28 +9286,28 @@
       <c r="G42" s="614">
         <v>44715</v>
       </c>
-      <c r="H42" s="612">
+      <c r="H42" s="617">
         <f>SUM(I42:K42)</f>
         <v>26</v>
       </c>
-      <c r="I42" s="612">
-        <v>0</v>
-      </c>
-      <c r="J42" s="612">
-        <v>0</v>
-      </c>
-      <c r="K42" s="612">
+      <c r="I42" s="617">
+        <v>0</v>
+      </c>
+      <c r="J42" s="617">
+        <v>0</v>
+      </c>
+      <c r="K42" s="617">
         <v>26</v>
       </c>
-      <c r="L42" s="613">
+      <c r="L42" s="618">
         <f>I42/H42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="613">
+      <c r="M42" s="618">
         <f>J42/H42</f>
         <v>0</v>
       </c>
-      <c r="N42" s="613">
+      <c r="N42" s="618">
         <f>K42/H42</f>
         <v>1</v>
       </c>
@@ -9235,28 +9322,28 @@
       <c r="G43" s="614">
         <v>44716</v>
       </c>
-      <c r="H43" s="612">
+      <c r="H43" s="617">
         <f>SUM(I43:K43)</f>
         <v>26</v>
       </c>
-      <c r="I43" s="612">
-        <v>0</v>
-      </c>
-      <c r="J43" s="612">
-        <v>0</v>
-      </c>
-      <c r="K43" s="612">
+      <c r="I43" s="617">
+        <v>0</v>
+      </c>
+      <c r="J43" s="617">
+        <v>0</v>
+      </c>
+      <c r="K43" s="617">
         <v>26</v>
       </c>
-      <c r="L43" s="613">
+      <c r="L43" s="618">
         <f>I43/H43</f>
         <v>0</v>
       </c>
-      <c r="M43" s="613">
+      <c r="M43" s="618">
         <f>J43/H43</f>
         <v>0</v>
       </c>
-      <c r="N43" s="613">
+      <c r="N43" s="618">
         <f>K43/H43</f>
         <v>1</v>
       </c>
@@ -9271,28 +9358,28 @@
       <c r="G44" s="614">
         <v>44717</v>
       </c>
-      <c r="H44" s="612">
+      <c r="H44" s="617">
         <f>SUM(I44:K44)</f>
         <v>26</v>
       </c>
-      <c r="I44" s="612">
-        <v>0</v>
-      </c>
-      <c r="J44" s="612">
-        <v>0</v>
-      </c>
-      <c r="K44" s="612">
+      <c r="I44" s="617">
+        <v>0</v>
+      </c>
+      <c r="J44" s="617">
+        <v>0</v>
+      </c>
+      <c r="K44" s="617">
         <v>26</v>
       </c>
-      <c r="L44" s="613">
+      <c r="L44" s="618">
         <f>I44/H44</f>
         <v>0</v>
       </c>
-      <c r="M44" s="613">
+      <c r="M44" s="618">
         <f>J44/H44</f>
         <v>0</v>
       </c>
-      <c r="N44" s="613">
+      <c r="N44" s="618">
         <f>K44/H44</f>
         <v>1</v>
       </c>
@@ -9307,28 +9394,28 @@
       <c r="G45" s="614">
         <v>44718</v>
       </c>
-      <c r="H45" s="612">
+      <c r="H45" s="617">
         <f>SUM(I45:K45)</f>
         <v>26</v>
       </c>
-      <c r="I45" s="612">
-        <v>0</v>
-      </c>
-      <c r="J45" s="612">
-        <v>0</v>
-      </c>
-      <c r="K45" s="612">
+      <c r="I45" s="617">
+        <v>0</v>
+      </c>
+      <c r="J45" s="617">
+        <v>0</v>
+      </c>
+      <c r="K45" s="617">
         <v>26</v>
       </c>
-      <c r="L45" s="613">
+      <c r="L45" s="618">
         <f>I45/H45</f>
         <v>0</v>
       </c>
-      <c r="M45" s="613">
+      <c r="M45" s="618">
         <f>J45/H45</f>
         <v>0</v>
       </c>
-      <c r="N45" s="613">
+      <c r="N45" s="618">
         <f>K45/H45</f>
         <v>1</v>
       </c>
@@ -9345,28 +9432,28 @@
       <c r="G46" s="614">
         <v>44719</v>
       </c>
-      <c r="H46" s="612">
+      <c r="H46" s="617">
         <f>SUM(I46:K46)</f>
         <v>26</v>
       </c>
-      <c r="I46" s="612">
-        <v>0</v>
-      </c>
-      <c r="J46" s="612">
-        <v>0</v>
-      </c>
-      <c r="K46" s="612">
+      <c r="I46" s="617">
+        <v>0</v>
+      </c>
+      <c r="J46" s="617">
+        <v>0</v>
+      </c>
+      <c r="K46" s="617">
         <v>26</v>
       </c>
-      <c r="L46" s="613">
+      <c r="L46" s="618">
         <f>I46/H46</f>
         <v>0</v>
       </c>
-      <c r="M46" s="613">
+      <c r="M46" s="618">
         <f>J46/H46</f>
         <v>0</v>
       </c>
-      <c r="N46" s="613">
+      <c r="N46" s="618">
         <f>K46/H46</f>
         <v>1</v>
       </c>
@@ -9381,28 +9468,28 @@
       <c r="G47" s="614">
         <v>44720</v>
       </c>
-      <c r="H47" s="612">
+      <c r="H47" s="617">
         <f>SUM(I47:K47)</f>
         <v>26</v>
       </c>
-      <c r="I47" s="612">
-        <v>0</v>
-      </c>
-      <c r="J47" s="612">
-        <v>0</v>
-      </c>
-      <c r="K47" s="612">
+      <c r="I47" s="617">
+        <v>0</v>
+      </c>
+      <c r="J47" s="617">
+        <v>0</v>
+      </c>
+      <c r="K47" s="617">
         <v>26</v>
       </c>
-      <c r="L47" s="613">
+      <c r="L47" s="618">
         <f>I47/H47</f>
         <v>0</v>
       </c>
-      <c r="M47" s="613">
+      <c r="M47" s="618">
         <f>J47/H47</f>
         <v>0</v>
       </c>
-      <c r="N47" s="613">
+      <c r="N47" s="618">
         <f>K47/H47</f>
         <v>1</v>
       </c>
@@ -9417,28 +9504,28 @@
       <c r="G48" s="614">
         <v>44721</v>
       </c>
-      <c r="H48" s="612">
+      <c r="H48" s="617">
         <f>SUM(I48:K48)</f>
         <v>26</v>
       </c>
-      <c r="I48" s="612">
-        <v>0</v>
-      </c>
-      <c r="J48" s="612">
-        <v>0</v>
-      </c>
-      <c r="K48" s="612">
+      <c r="I48" s="617">
+        <v>0</v>
+      </c>
+      <c r="J48" s="617">
+        <v>0</v>
+      </c>
+      <c r="K48" s="617">
         <v>26</v>
       </c>
-      <c r="L48" s="613">
+      <c r="L48" s="618">
         <f>I48/H48</f>
         <v>0</v>
       </c>
-      <c r="M48" s="613">
+      <c r="M48" s="618">
         <f>J48/H48</f>
         <v>0</v>
       </c>
-      <c r="N48" s="613">
+      <c r="N48" s="618">
         <f>K48/H48</f>
         <v>1</v>
       </c>
@@ -9453,28 +9540,28 @@
       <c r="G49" s="614">
         <v>44722</v>
       </c>
-      <c r="H49" s="612">
+      <c r="H49" s="617">
         <f>SUM(I49:K49)</f>
         <v>26</v>
       </c>
-      <c r="I49" s="612">
-        <v>0</v>
-      </c>
-      <c r="J49" s="612">
-        <v>0</v>
-      </c>
-      <c r="K49" s="612">
+      <c r="I49" s="617">
+        <v>0</v>
+      </c>
+      <c r="J49" s="617">
+        <v>0</v>
+      </c>
+      <c r="K49" s="617">
         <v>26</v>
       </c>
-      <c r="L49" s="613">
+      <c r="L49" s="618">
         <f>I49/H49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="613">
+      <c r="M49" s="618">
         <f>J49/H49</f>
         <v>0</v>
       </c>
-      <c r="N49" s="613">
+      <c r="N49" s="618">
         <f>K49/H49</f>
         <v>1</v>
       </c>
@@ -9489,28 +9576,28 @@
       <c r="G50" s="614">
         <v>44723</v>
       </c>
-      <c r="H50" s="612">
+      <c r="H50" s="617">
         <f>SUM(I50:K50)</f>
         <v>26</v>
       </c>
-      <c r="I50" s="612">
-        <v>0</v>
-      </c>
-      <c r="J50" s="612">
-        <v>0</v>
-      </c>
-      <c r="K50" s="612">
+      <c r="I50" s="617">
+        <v>0</v>
+      </c>
+      <c r="J50" s="617">
+        <v>0</v>
+      </c>
+      <c r="K50" s="617">
         <v>26</v>
       </c>
-      <c r="L50" s="613">
+      <c r="L50" s="618">
         <f>I50/H50</f>
         <v>0</v>
       </c>
-      <c r="M50" s="613">
+      <c r="M50" s="618">
         <f>J50/H50</f>
         <v>0</v>
       </c>
-      <c r="N50" s="613">
+      <c r="N50" s="618">
         <f>K50/H50</f>
         <v>1</v>
       </c>
@@ -9525,28 +9612,28 @@
       <c r="G51" s="614">
         <v>44724</v>
       </c>
-      <c r="H51" s="612">
+      <c r="H51" s="617">
         <f>SUM(I51:K51)</f>
         <v>26</v>
       </c>
-      <c r="I51" s="612">
-        <v>0</v>
-      </c>
-      <c r="J51" s="612">
-        <v>0</v>
-      </c>
-      <c r="K51" s="612">
+      <c r="I51" s="617">
+        <v>0</v>
+      </c>
+      <c r="J51" s="617">
+        <v>0</v>
+      </c>
+      <c r="K51" s="617">
         <v>26</v>
       </c>
-      <c r="L51" s="613">
+      <c r="L51" s="618">
         <f>I51/H51</f>
         <v>0</v>
       </c>
-      <c r="M51" s="613">
+      <c r="M51" s="618">
         <f>J51/H51</f>
         <v>0</v>
       </c>
-      <c r="N51" s="613">
+      <c r="N51" s="618">
         <f>K51/H51</f>
         <v>1</v>
       </c>
@@ -9561,28 +9648,28 @@
       <c r="G52" s="614">
         <v>44725</v>
       </c>
-      <c r="H52" s="612">
+      <c r="H52" s="617">
         <f>SUM(I52:K52)</f>
         <v>26</v>
       </c>
-      <c r="I52" s="612">
-        <v>0</v>
-      </c>
-      <c r="J52" s="612">
-        <v>0</v>
-      </c>
-      <c r="K52" s="612">
+      <c r="I52" s="617">
+        <v>0</v>
+      </c>
+      <c r="J52" s="617">
+        <v>0</v>
+      </c>
+      <c r="K52" s="617">
         <v>26</v>
       </c>
-      <c r="L52" s="613">
+      <c r="L52" s="618">
         <f>I52/H52</f>
         <v>0</v>
       </c>
-      <c r="M52" s="613">
+      <c r="M52" s="618">
         <f>J52/H52</f>
         <v>0</v>
       </c>
-      <c r="N52" s="613">
+      <c r="N52" s="618">
         <f>K52/H52</f>
         <v>1</v>
       </c>

--- a/Project_Design/프로젝트 공정관리/프로젝트 공정 관리.xlsx
+++ b/Project_Design/프로젝트 공정관리/프로젝트 공정 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 기능 정의서" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -1231,6 +1231,24 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>프로그램 안내</t>
+  </si>
+  <si>
+    <t>자주 묻는 질문</t>
+  </si>
+  <si>
+    <t>MC-10</t>
+  </si>
+  <si>
+    <t>서일대학교의 프로그램에 대해서 리스트로 사용자에게 보여줌</t>
+  </si>
+  <si>
+    <t>사용자가 궁금한 점에 대한 답변을 받음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1846,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2092,13 +2110,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.150000"/>
+        <fgColor theme="0" tint="-0.049990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049990"/>
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.099980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2806,7 +2860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="631">
+  <cellXfs count="643">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4604,28 +4658,28 @@
     <xf numFmtId="14" fontId="81" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="81" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="81" fillId="44" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="81" fillId="44" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="45" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="81" fillId="45" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="96" fillId="42" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="97" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="45" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="97" fillId="45" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="44" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="97" fillId="44" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="42" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4640,10 +4694,10 @@
     <xf numFmtId="14" fontId="99" fillId="20" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="45" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="99" fillId="45" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="44" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="99" fillId="44" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="42" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4651,6 +4705,42 @@
     </xf>
     <xf numFmtId="0" fontId="98" fillId="42" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="45" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="46" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="46" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="47" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="47" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="47" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="47" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="48" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="99" fillId="49" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="99" fillId="50" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="99" fillId="51" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -6870,12 +6960,12 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView topLeftCell="B1" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="30" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="13" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -7733,7 +7823,7 @@
       <c r="A4" s="521" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="522" t="s">
+      <c r="B4" s="631" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="403" t="s">
@@ -7759,27 +7849,27 @@
         <v>0</v>
       </c>
       <c r="J4" s="627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="627">
-        <v>26</v>
-      </c>
-      <c r="L4" s="628">
+        <v>25</v>
+      </c>
+      <c r="L4" s="640">
         <f>I4/H4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="628">
+      <c r="M4" s="641">
         <f>J4/H4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="628">
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="N4" s="642">
         <f>K4/H4</f>
-        <v>1</v>
+        <v>0.961538461538462</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A5" s="524"/>
-      <c r="B5" s="522"/>
+      <c r="B5" s="631"/>
       <c r="C5" s="403" t="s">
         <v>351</v>
       </c>
@@ -7801,27 +7891,27 @@
         <v>0</v>
       </c>
       <c r="J5" s="627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="627">
-        <v>26</v>
-      </c>
-      <c r="L5" s="628">
+        <v>25</v>
+      </c>
+      <c r="L5" s="640">
         <f>I5/H5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="628">
+      <c r="M5" s="641">
         <f>J5/H5</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="628">
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="N5" s="642">
         <f>K5/H5</f>
-        <v>1</v>
+        <v>0.961538461538462</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A6" s="524"/>
-      <c r="B6" s="522"/>
+      <c r="B6" s="631"/>
       <c r="C6" s="403" t="s">
         <v>352</v>
       </c>
@@ -7843,27 +7933,27 @@
         <v>0</v>
       </c>
       <c r="J6" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="627">
-        <v>26</v>
-      </c>
-      <c r="L6" s="628">
+        <v>24</v>
+      </c>
+      <c r="L6" s="640">
         <f>I6/H6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="628">
+      <c r="M6" s="641">
         <f>J6/H6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="628">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="N6" s="642">
         <f>K6/H6</f>
-        <v>1</v>
+        <v>0.923076923076923</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A7" s="524"/>
-      <c r="B7" s="522"/>
+      <c r="B7" s="631"/>
       <c r="C7" s="403" t="s">
         <v>208</v>
       </c>
@@ -7885,27 +7975,27 @@
         <v>0</v>
       </c>
       <c r="J7" s="627">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="627">
-        <v>26</v>
-      </c>
-      <c r="L7" s="628">
+        <v>23</v>
+      </c>
+      <c r="L7" s="640">
         <f>I7/H7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="628">
+      <c r="M7" s="641">
         <f>J7/H7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="628">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="N7" s="642">
         <f>K7/H7</f>
-        <v>1</v>
+        <v>0.884615384615385</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A8" s="524"/>
-      <c r="B8" s="522"/>
+      <c r="B8" s="631"/>
       <c r="C8" s="403" t="s">
         <v>209</v>
       </c>
@@ -7927,26 +8017,26 @@
         <v>0</v>
       </c>
       <c r="J8" s="627">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="627">
-        <v>26</v>
-      </c>
-      <c r="L8" s="628">
-        <v>0</v>
-      </c>
-      <c r="M8" s="628">
+        <v>23</v>
+      </c>
+      <c r="L8" s="640">
+        <v>0</v>
+      </c>
+      <c r="M8" s="641">
         <f>J8/H8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="628">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="N8" s="642">
         <f>K8/H8</f>
-        <v>1</v>
+        <v>0.884615384615385</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A9" s="524"/>
-      <c r="B9" s="522"/>
+      <c r="B9" s="631"/>
       <c r="C9" s="403" t="s">
         <v>198</v>
       </c>
@@ -7968,27 +8058,27 @@
         <v>0</v>
       </c>
       <c r="J9" s="627">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="627">
-        <v>26</v>
-      </c>
-      <c r="L9" s="628">
+        <v>23</v>
+      </c>
+      <c r="L9" s="640">
         <f>I9/H9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="628">
+      <c r="M9" s="641">
         <f>J9/H9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="628">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="N9" s="642">
         <f>K9/H9</f>
-        <v>1</v>
+        <v>0.884615384615385</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A10" s="524"/>
-      <c r="B10" s="522"/>
+      <c r="B10" s="631"/>
       <c r="C10" s="403" t="s">
         <v>292</v>
       </c>
@@ -8007,30 +8097,30 @@
         <v>26</v>
       </c>
       <c r="I10" s="627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="627">
-        <v>26</v>
-      </c>
-      <c r="L10" s="628">
+        <v>23</v>
+      </c>
+      <c r="L10" s="640">
         <f>I10/H10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="628">
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="M10" s="641">
         <f>J10/H10</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="628">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="N10" s="642">
         <f>K10/H10</f>
-        <v>1</v>
+        <v>0.884615384615385</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A11" s="524"/>
-      <c r="B11" s="522"/>
+      <c r="B11" s="631"/>
       <c r="C11" s="403" t="s">
         <v>322</v>
       </c>
@@ -8040,41 +8130,41 @@
       <c r="E11" s="403" t="s">
         <v>339</v>
       </c>
-      <c r="F11" s="601" t="s">
+      <c r="F11" s="625" t="s">
         <v>384</v>
       </c>
-      <c r="G11" s="614">
+      <c r="G11" s="626">
         <v>44684</v>
       </c>
-      <c r="H11" s="617">
+      <c r="H11" s="627">
         <f>SUM(I11:K11)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="617">
-        <v>0</v>
-      </c>
-      <c r="J11" s="617">
-        <v>0</v>
-      </c>
-      <c r="K11" s="617">
-        <v>26</v>
-      </c>
-      <c r="L11" s="618">
+      <c r="I11" s="627">
+        <v>3</v>
+      </c>
+      <c r="J11" s="627">
+        <v>4</v>
+      </c>
+      <c r="K11" s="627">
+        <v>19</v>
+      </c>
+      <c r="L11" s="640">
         <f>I11/H11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="618">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="M11" s="641">
         <f>J11/H11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="618">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="N11" s="642">
         <f>K11/H11</f>
-        <v>1</v>
+        <v>0.730769230769231</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A12" s="529"/>
-      <c r="B12" s="530" t="s">
+      <c r="B12" s="632" t="s">
         <v>353</v>
       </c>
       <c r="C12" s="403" t="s">
@@ -8086,39 +8176,39 @@
       <c r="E12" s="403" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="602"/>
-      <c r="G12" s="614">
+      <c r="F12" s="629"/>
+      <c r="G12" s="626">
         <v>44685</v>
       </c>
-      <c r="H12" s="617">
+      <c r="H12" s="627">
         <f>SUM(I12:K12)</f>
         <v>26</v>
       </c>
-      <c r="I12" s="617">
-        <v>0</v>
-      </c>
-      <c r="J12" s="617">
-        <v>0</v>
-      </c>
-      <c r="K12" s="617">
-        <v>26</v>
-      </c>
-      <c r="L12" s="618">
+      <c r="I12" s="627">
+        <v>3</v>
+      </c>
+      <c r="J12" s="627">
+        <v>5</v>
+      </c>
+      <c r="K12" s="627">
+        <v>18</v>
+      </c>
+      <c r="L12" s="640">
         <f>I12/H12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="618">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="M12" s="641">
         <f>J12/H12</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="618">
+        <v>0.192307692307692</v>
+      </c>
+      <c r="N12" s="642">
         <f>K12/H12</f>
-        <v>1</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A13" s="529"/>
-      <c r="B13" s="530"/>
+      <c r="B13" s="632"/>
       <c r="C13" s="403" t="s">
         <v>195</v>
       </c>
@@ -8128,39 +8218,39 @@
       <c r="E13" s="403" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="602"/>
-      <c r="G13" s="614">
+      <c r="F13" s="629"/>
+      <c r="G13" s="626">
         <v>44686</v>
       </c>
-      <c r="H13" s="617">
+      <c r="H13" s="627">
         <f>SUM(I13:K13)</f>
         <v>26</v>
       </c>
-      <c r="I13" s="617">
-        <v>0</v>
-      </c>
-      <c r="J13" s="617">
-        <v>0</v>
-      </c>
-      <c r="K13" s="617">
-        <v>26</v>
-      </c>
-      <c r="L13" s="618">
+      <c r="I13" s="627">
+        <v>3</v>
+      </c>
+      <c r="J13" s="627">
+        <v>5</v>
+      </c>
+      <c r="K13" s="627">
+        <v>18</v>
+      </c>
+      <c r="L13" s="640">
         <f>I13/H13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="618">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="M13" s="641">
         <f>J13/H13</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="618">
+        <v>0.192307692307692</v>
+      </c>
+      <c r="N13" s="642">
         <f>K13/H13</f>
-        <v>1</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A14" s="529"/>
-      <c r="B14" s="531"/>
+      <c r="B14" s="633"/>
       <c r="C14" s="403" t="s">
         <v>331</v>
       </c>
@@ -8170,39 +8260,39 @@
       <c r="E14" s="403" t="s">
         <v>337</v>
       </c>
-      <c r="F14" s="602"/>
-      <c r="G14" s="614">
+      <c r="F14" s="629"/>
+      <c r="G14" s="626">
         <v>44687</v>
       </c>
-      <c r="H14" s="617">
+      <c r="H14" s="627">
         <f>SUM(I14:K14)</f>
         <v>26</v>
       </c>
-      <c r="I14" s="617">
-        <v>0</v>
-      </c>
-      <c r="J14" s="617">
-        <v>0</v>
-      </c>
-      <c r="K14" s="617">
-        <v>26</v>
-      </c>
-      <c r="L14" s="618">
+      <c r="I14" s="627">
+        <v>3</v>
+      </c>
+      <c r="J14" s="627">
+        <v>5</v>
+      </c>
+      <c r="K14" s="627">
+        <v>18</v>
+      </c>
+      <c r="L14" s="640">
         <f>I14/H14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="618">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="M14" s="641">
         <f>J14/H14</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="618">
+        <v>0.192307692307692</v>
+      </c>
+      <c r="N14" s="642">
         <f>K14/H14</f>
-        <v>1</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A15" s="529"/>
-      <c r="B15" s="531"/>
+      <c r="B15" s="633"/>
       <c r="C15" s="403" t="s">
         <v>332</v>
       </c>
@@ -8212,39 +8302,39 @@
       <c r="E15" s="403" t="s">
         <v>338</v>
       </c>
-      <c r="F15" s="602"/>
-      <c r="G15" s="614">
+      <c r="F15" s="629"/>
+      <c r="G15" s="626">
         <v>44688</v>
       </c>
-      <c r="H15" s="617">
+      <c r="H15" s="627">
         <f>SUM(I15:K15)</f>
         <v>26</v>
       </c>
-      <c r="I15" s="617">
-        <v>0</v>
-      </c>
-      <c r="J15" s="617">
-        <v>0</v>
-      </c>
-      <c r="K15" s="617">
-        <v>26</v>
-      </c>
-      <c r="L15" s="618">
+      <c r="I15" s="627">
+        <v>5</v>
+      </c>
+      <c r="J15" s="627">
+        <v>2</v>
+      </c>
+      <c r="K15" s="627">
+        <v>19</v>
+      </c>
+      <c r="L15" s="640">
         <f>I15/H15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="618">
+        <v>0.192307692307692</v>
+      </c>
+      <c r="M15" s="641">
         <f>J15/H15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="618">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="N15" s="642">
         <f>K15/H15</f>
-        <v>1</v>
+        <v>0.730769230769231</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A16" s="529"/>
-      <c r="B16" s="531"/>
+      <c r="B16" s="633"/>
       <c r="C16" s="403" t="s">
         <v>329</v>
       </c>
@@ -8254,39 +8344,39 @@
       <c r="E16" s="403" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="602"/>
-      <c r="G16" s="614">
+      <c r="F16" s="629"/>
+      <c r="G16" s="626">
         <v>44689</v>
       </c>
-      <c r="H16" s="617">
+      <c r="H16" s="627">
         <f>SUM(I16:K16)</f>
         <v>26</v>
       </c>
-      <c r="I16" s="617">
-        <v>0</v>
-      </c>
-      <c r="J16" s="617">
-        <v>0</v>
-      </c>
-      <c r="K16" s="617">
-        <v>26</v>
-      </c>
-      <c r="L16" s="618">
+      <c r="I16" s="627">
+        <v>6</v>
+      </c>
+      <c r="J16" s="627">
+        <v>1</v>
+      </c>
+      <c r="K16" s="627">
+        <v>19</v>
+      </c>
+      <c r="L16" s="640">
         <f>I16/H16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="618">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="M16" s="641">
         <f>J16/H16</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="618">
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="N16" s="642">
         <f>K16/H16</f>
-        <v>1</v>
+        <v>0.730769230769231</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A17" s="524"/>
-      <c r="B17" s="532"/>
+      <c r="B17" s="634"/>
       <c r="C17" s="403" t="s">
         <v>335</v>
       </c>
@@ -8296,39 +8386,39 @@
       <c r="E17" s="403" t="s">
         <v>248</v>
       </c>
-      <c r="F17" s="603"/>
-      <c r="G17" s="614">
+      <c r="F17" s="630"/>
+      <c r="G17" s="626">
         <v>44690</v>
       </c>
-      <c r="H17" s="617">
+      <c r="H17" s="627">
         <f>SUM(I17:K17)</f>
         <v>26</v>
       </c>
-      <c r="I17" s="617">
-        <v>0</v>
-      </c>
-      <c r="J17" s="617">
-        <v>0</v>
-      </c>
-      <c r="K17" s="617">
-        <v>26</v>
-      </c>
-      <c r="L17" s="618">
+      <c r="I17" s="627">
+        <v>6</v>
+      </c>
+      <c r="J17" s="627">
+        <v>1</v>
+      </c>
+      <c r="K17" s="627">
+        <v>19</v>
+      </c>
+      <c r="L17" s="640">
         <f>I17/H17</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="618">
+        <v>0.230769230769231</v>
+      </c>
+      <c r="M17" s="641">
         <f>J17/H17</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="618">
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="N17" s="642">
         <f>K17/H17</f>
-        <v>1</v>
+        <v>0.730769230769231</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A18" s="529"/>
-      <c r="B18" s="530"/>
+      <c r="B18" s="632"/>
       <c r="C18" s="404" t="s">
         <v>317</v>
       </c>
@@ -8338,41 +8428,41 @@
       <c r="E18" s="403" t="s">
         <v>315</v>
       </c>
-      <c r="F18" s="601" t="s">
+      <c r="F18" s="625" t="s">
         <v>385</v>
       </c>
-      <c r="G18" s="614">
+      <c r="G18" s="626">
         <v>44691</v>
       </c>
-      <c r="H18" s="617">
+      <c r="H18" s="627">
         <f>SUM(I18:K18)</f>
         <v>26</v>
       </c>
-      <c r="I18" s="617">
-        <v>0</v>
-      </c>
-      <c r="J18" s="617">
-        <v>0</v>
-      </c>
-      <c r="K18" s="617">
+      <c r="I18" s="627">
+        <v>0</v>
+      </c>
+      <c r="J18" s="627">
+        <v>0</v>
+      </c>
+      <c r="K18" s="627">
         <v>26</v>
       </c>
-      <c r="L18" s="618">
+      <c r="L18" s="640">
         <f>I18/H18</f>
         <v>0</v>
       </c>
-      <c r="M18" s="618">
+      <c r="M18" s="641">
         <f>J18/H18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="618">
+      <c r="N18" s="642">
         <f>K18/H18</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A19" s="529"/>
-      <c r="B19" s="533" t="s">
+      <c r="B19" s="635" t="s">
         <v>354</v>
       </c>
       <c r="C19" s="403" t="s">
@@ -8384,39 +8474,39 @@
       <c r="E19" s="403" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="602"/>
-      <c r="G19" s="614">
+      <c r="F19" s="629"/>
+      <c r="G19" s="626">
         <v>44692</v>
       </c>
-      <c r="H19" s="617">
+      <c r="H19" s="627">
         <f>SUM(I19:K19)</f>
         <v>26</v>
       </c>
-      <c r="I19" s="617">
-        <v>0</v>
-      </c>
-      <c r="J19" s="617">
-        <v>0</v>
-      </c>
-      <c r="K19" s="617">
+      <c r="I19" s="627">
+        <v>0</v>
+      </c>
+      <c r="J19" s="627">
+        <v>0</v>
+      </c>
+      <c r="K19" s="627">
         <v>26</v>
       </c>
-      <c r="L19" s="618">
+      <c r="L19" s="640">
         <f>I19/H19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="618">
+      <c r="M19" s="641">
         <f>J19/H19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="618">
+      <c r="N19" s="642">
         <f>K19/H19</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A20" s="529"/>
-      <c r="B20" s="533"/>
+      <c r="B20" s="636"/>
       <c r="C20" s="403" t="s">
         <v>204</v>
       </c>
@@ -8426,39 +8516,39 @@
       <c r="E20" s="403" t="s">
         <v>259</v>
       </c>
-      <c r="F20" s="602"/>
-      <c r="G20" s="614">
+      <c r="F20" s="629"/>
+      <c r="G20" s="626">
         <v>44693</v>
       </c>
-      <c r="H20" s="617">
+      <c r="H20" s="627">
         <f>SUM(I20:K20)</f>
         <v>26</v>
       </c>
-      <c r="I20" s="617">
-        <v>0</v>
-      </c>
-      <c r="J20" s="617">
-        <v>0</v>
-      </c>
-      <c r="K20" s="617">
+      <c r="I20" s="627">
+        <v>0</v>
+      </c>
+      <c r="J20" s="627">
+        <v>0</v>
+      </c>
+      <c r="K20" s="627">
         <v>26</v>
       </c>
-      <c r="L20" s="618">
+      <c r="L20" s="640">
         <f>I20/H20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="618">
+      <c r="M20" s="641">
         <f>J20/H20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="618">
+      <c r="N20" s="642">
         <f>K20/H20</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A21" s="529"/>
-      <c r="B21" s="533"/>
+      <c r="B21" s="636"/>
       <c r="C21" s="403" t="s">
         <v>210</v>
       </c>
@@ -8468,39 +8558,39 @@
       <c r="E21" s="403" t="s">
         <v>260</v>
       </c>
-      <c r="F21" s="602"/>
-      <c r="G21" s="614">
+      <c r="F21" s="629"/>
+      <c r="G21" s="626">
         <v>44694</v>
       </c>
-      <c r="H21" s="617">
+      <c r="H21" s="627">
         <f>SUM(I21:K21)</f>
         <v>26</v>
       </c>
-      <c r="I21" s="617">
-        <v>0</v>
-      </c>
-      <c r="J21" s="617">
-        <v>0</v>
-      </c>
-      <c r="K21" s="617">
+      <c r="I21" s="627">
+        <v>0</v>
+      </c>
+      <c r="J21" s="627">
+        <v>0</v>
+      </c>
+      <c r="K21" s="627">
         <v>26</v>
       </c>
-      <c r="L21" s="618">
+      <c r="L21" s="640">
         <f>I21/H21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="618">
+      <c r="M21" s="641">
         <f>J21/H21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="618">
+      <c r="N21" s="642">
         <f>K21/H21</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A22" s="529"/>
-      <c r="B22" s="533"/>
+      <c r="B22" s="636"/>
       <c r="C22" s="403" t="s">
         <v>212</v>
       </c>
@@ -8510,39 +8600,39 @@
       <c r="E22" s="403" t="s">
         <v>261</v>
       </c>
-      <c r="F22" s="602"/>
-      <c r="G22" s="614">
+      <c r="F22" s="629"/>
+      <c r="G22" s="626">
         <v>44695</v>
       </c>
-      <c r="H22" s="617">
+      <c r="H22" s="627">
         <f>SUM(I22:K22)</f>
         <v>26</v>
       </c>
-      <c r="I22" s="617">
-        <v>0</v>
-      </c>
-      <c r="J22" s="617">
-        <v>0</v>
-      </c>
-      <c r="K22" s="617">
+      <c r="I22" s="627">
+        <v>0</v>
+      </c>
+      <c r="J22" s="627">
+        <v>0</v>
+      </c>
+      <c r="K22" s="627">
         <v>26</v>
       </c>
-      <c r="L22" s="618">
+      <c r="L22" s="640">
         <f>I22/H22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="618">
+      <c r="M22" s="641">
         <f>J22/H22</f>
         <v>0</v>
       </c>
-      <c r="N22" s="618">
+      <c r="N22" s="642">
         <f>K22/H22</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A23" s="529"/>
-      <c r="B23" s="533"/>
+      <c r="B23" s="636"/>
       <c r="C23" s="403" t="s">
         <v>202</v>
       </c>
@@ -8552,39 +8642,39 @@
       <c r="E23" s="403" t="s">
         <v>262</v>
       </c>
-      <c r="F23" s="602"/>
-      <c r="G23" s="614">
+      <c r="F23" s="629"/>
+      <c r="G23" s="626">
         <v>44696</v>
       </c>
-      <c r="H23" s="617">
+      <c r="H23" s="627">
         <f>SUM(I23:K23)</f>
         <v>26</v>
       </c>
-      <c r="I23" s="617">
-        <v>0</v>
-      </c>
-      <c r="J23" s="617">
-        <v>0</v>
-      </c>
-      <c r="K23" s="617">
+      <c r="I23" s="627">
+        <v>0</v>
+      </c>
+      <c r="J23" s="627">
+        <v>0</v>
+      </c>
+      <c r="K23" s="627">
         <v>26</v>
       </c>
-      <c r="L23" s="618">
+      <c r="L23" s="640">
         <f>I23/H23</f>
         <v>0</v>
       </c>
-      <c r="M23" s="618">
+      <c r="M23" s="641">
         <f>J23/H23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="618">
+      <c r="N23" s="642">
         <f>K23/H23</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A24" s="529"/>
-      <c r="B24" s="534"/>
+      <c r="B24" s="637"/>
       <c r="C24" s="403" t="s">
         <v>203</v>
       </c>
@@ -8594,39 +8684,39 @@
       <c r="E24" s="403" t="s">
         <v>263</v>
       </c>
-      <c r="F24" s="603"/>
-      <c r="G24" s="614">
+      <c r="F24" s="630"/>
+      <c r="G24" s="626">
         <v>44697</v>
       </c>
-      <c r="H24" s="617">
+      <c r="H24" s="627">
         <f>SUM(I24:K24)</f>
         <v>26</v>
       </c>
-      <c r="I24" s="617">
-        <v>0</v>
-      </c>
-      <c r="J24" s="617">
-        <v>0</v>
-      </c>
-      <c r="K24" s="617">
+      <c r="I24" s="627">
+        <v>0</v>
+      </c>
+      <c r="J24" s="627">
+        <v>0</v>
+      </c>
+      <c r="K24" s="627">
         <v>26</v>
       </c>
-      <c r="L24" s="618">
+      <c r="L24" s="640">
         <f>I24/H24</f>
         <v>0</v>
       </c>
-      <c r="M24" s="618">
+      <c r="M24" s="641">
         <f>J24/H24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="618">
+      <c r="N24" s="642">
         <f>K24/H24</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A25" s="529"/>
-      <c r="B25" s="533"/>
+      <c r="B25" s="636"/>
       <c r="C25" s="403" t="s">
         <v>213</v>
       </c>
@@ -8636,41 +8726,41 @@
       <c r="E25" s="403" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="601" t="s">
+      <c r="F25" s="625" t="s">
         <v>386</v>
       </c>
-      <c r="G25" s="614">
+      <c r="G25" s="626">
         <v>44698</v>
       </c>
-      <c r="H25" s="617">
+      <c r="H25" s="627">
         <f>SUM(I25:K25)</f>
         <v>26</v>
       </c>
-      <c r="I25" s="617">
-        <v>0</v>
-      </c>
-      <c r="J25" s="617">
-        <v>0</v>
-      </c>
-      <c r="K25" s="617">
+      <c r="I25" s="627">
+        <v>0</v>
+      </c>
+      <c r="J25" s="627">
+        <v>0</v>
+      </c>
+      <c r="K25" s="627">
         <v>26</v>
       </c>
-      <c r="L25" s="618">
+      <c r="L25" s="640">
         <f>I25/H25</f>
         <v>0</v>
       </c>
-      <c r="M25" s="618">
+      <c r="M25" s="641">
         <f>J25/H25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="618">
+      <c r="N25" s="642">
         <f>K25/H25</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A26" s="529"/>
-      <c r="B26" s="533"/>
+      <c r="B26" s="636"/>
       <c r="C26" s="403" t="s">
         <v>310</v>
       </c>
@@ -8680,39 +8770,39 @@
       <c r="E26" s="403" t="s">
         <v>312</v>
       </c>
-      <c r="F26" s="602"/>
-      <c r="G26" s="614">
+      <c r="F26" s="629"/>
+      <c r="G26" s="626">
         <v>44699</v>
       </c>
-      <c r="H26" s="617">
+      <c r="H26" s="627">
         <f>SUM(I26:K26)</f>
         <v>26</v>
       </c>
-      <c r="I26" s="617">
-        <v>0</v>
-      </c>
-      <c r="J26" s="617">
-        <v>0</v>
-      </c>
-      <c r="K26" s="617">
+      <c r="I26" s="627">
+        <v>0</v>
+      </c>
+      <c r="J26" s="627">
+        <v>0</v>
+      </c>
+      <c r="K26" s="627">
         <v>26</v>
       </c>
-      <c r="L26" s="618">
+      <c r="L26" s="640">
         <f>I26/H26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="618">
+      <c r="M26" s="641">
         <f>J26/H26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="618">
+      <c r="N26" s="642">
         <f>K26/H26</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A27" s="529"/>
-      <c r="B27" s="533"/>
+      <c r="B27" s="636"/>
       <c r="C27" s="403" t="s">
         <v>318</v>
       </c>
@@ -8722,76 +8812,74 @@
       <c r="E27" s="403" t="s">
         <v>319</v>
       </c>
-      <c r="F27" s="602"/>
-      <c r="G27" s="614">
+      <c r="F27" s="629"/>
+      <c r="G27" s="626">
         <v>44700</v>
       </c>
-      <c r="H27" s="617">
+      <c r="H27" s="627">
         <f>SUM(I27:K27)</f>
         <v>26</v>
       </c>
-      <c r="I27" s="617">
-        <v>0</v>
-      </c>
-      <c r="J27" s="617">
-        <v>0</v>
-      </c>
-      <c r="K27" s="617">
+      <c r="I27" s="627">
+        <v>0</v>
+      </c>
+      <c r="J27" s="627">
+        <v>0</v>
+      </c>
+      <c r="K27" s="627">
         <v>26</v>
       </c>
-      <c r="L27" s="618">
+      <c r="L27" s="640">
         <f>I27/H27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="618">
+      <c r="M27" s="641">
         <f>J27/H27</f>
         <v>0</v>
       </c>
-      <c r="N27" s="618">
+      <c r="N27" s="642">
         <f>K27/H27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="20.000000" customHeight="1">
       <c r="A28" s="521"/>
-      <c r="B28" s="535" t="s">
-        <v>355</v>
-      </c>
+      <c r="B28" s="638"/>
       <c r="C28" s="403" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="403" t="s">
-        <v>380</v>
+        <v>399</v>
+      </c>
+      <c r="D28" s="404" t="s">
+        <v>401</v>
       </c>
       <c r="E28" s="403" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" s="602"/>
-      <c r="G28" s="614">
+        <v>402</v>
+      </c>
+      <c r="F28" s="629"/>
+      <c r="G28" s="626">
         <v>44701</v>
       </c>
-      <c r="H28" s="617">
+      <c r="H28" s="627">
         <f>SUM(I28:K28)</f>
         <v>26</v>
       </c>
-      <c r="I28" s="617">
-        <v>0</v>
-      </c>
-      <c r="J28" s="617">
-        <v>0</v>
-      </c>
-      <c r="K28" s="617">
+      <c r="I28" s="627">
+        <v>0</v>
+      </c>
+      <c r="J28" s="627">
+        <v>0</v>
+      </c>
+      <c r="K28" s="627">
         <v>26</v>
       </c>
-      <c r="L28" s="618">
+      <c r="L28" s="640">
         <f>I28/H28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="618">
+      <c r="M28" s="641">
         <f>J28/H28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="618">
+      <c r="N28" s="642">
         <f>K28/H28</f>
         <v>1</v>
       </c>
@@ -8800,42 +8888,44 @@
       <c r="A29" s="397" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="402"/>
+      <c r="B29" s="639" t="s">
+        <v>355</v>
+      </c>
       <c r="C29" s="403" t="s">
-        <v>305</v>
+        <v>400</v>
       </c>
       <c r="D29" s="403" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E29" s="403" t="s">
-        <v>307</v>
-      </c>
-      <c r="F29" s="602"/>
-      <c r="G29" s="614">
+        <v>403</v>
+      </c>
+      <c r="F29" s="629"/>
+      <c r="G29" s="626">
         <v>44702</v>
       </c>
-      <c r="H29" s="617">
+      <c r="H29" s="627">
         <f>SUM(I29:K29)</f>
         <v>26</v>
       </c>
-      <c r="I29" s="617">
-        <v>0</v>
-      </c>
-      <c r="J29" s="617">
-        <v>0</v>
-      </c>
-      <c r="K29" s="617">
+      <c r="I29" s="627">
+        <v>0</v>
+      </c>
+      <c r="J29" s="627">
+        <v>0</v>
+      </c>
+      <c r="K29" s="627">
         <v>26</v>
       </c>
-      <c r="L29" s="618">
+      <c r="L29" s="640">
         <f>I29/H29</f>
         <v>0</v>
       </c>
-      <c r="M29" s="618">
+      <c r="M29" s="641">
         <f>J29/H29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="618">
+      <c r="N29" s="642">
         <f>K29/H29</f>
         <v>1</v>
       </c>
@@ -8846,32 +8936,32 @@
       <c r="C30" s="567"/>
       <c r="D30" s="567"/>
       <c r="E30" s="567"/>
-      <c r="F30" s="602"/>
-      <c r="G30" s="614">
+      <c r="F30" s="629"/>
+      <c r="G30" s="626">
         <v>44703</v>
       </c>
-      <c r="H30" s="617">
+      <c r="H30" s="627">
         <f>SUM(I30:K30)</f>
         <v>26</v>
       </c>
-      <c r="I30" s="617">
-        <v>0</v>
-      </c>
-      <c r="J30" s="617">
-        <v>0</v>
-      </c>
-      <c r="K30" s="617">
+      <c r="I30" s="627">
+        <v>0</v>
+      </c>
+      <c r="J30" s="627">
+        <v>0</v>
+      </c>
+      <c r="K30" s="627">
         <v>26</v>
       </c>
-      <c r="L30" s="618">
+      <c r="L30" s="640">
         <f>I30/H30</f>
         <v>0</v>
       </c>
-      <c r="M30" s="618">
+      <c r="M30" s="641">
         <f>J30/H30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="618">
+      <c r="N30" s="642">
         <f>K30/H30</f>
         <v>1</v>
       </c>
@@ -8882,32 +8972,32 @@
       <c r="C31" s="567"/>
       <c r="D31" s="567"/>
       <c r="E31" s="567"/>
-      <c r="F31" s="603"/>
-      <c r="G31" s="614">
+      <c r="F31" s="630"/>
+      <c r="G31" s="626">
         <v>44704</v>
       </c>
-      <c r="H31" s="617">
+      <c r="H31" s="627">
         <f>SUM(I31:K31)</f>
         <v>26</v>
       </c>
-      <c r="I31" s="617">
-        <v>0</v>
-      </c>
-      <c r="J31" s="617">
-        <v>0</v>
-      </c>
-      <c r="K31" s="617">
+      <c r="I31" s="627">
+        <v>0</v>
+      </c>
+      <c r="J31" s="627">
+        <v>0</v>
+      </c>
+      <c r="K31" s="627">
         <v>26</v>
       </c>
-      <c r="L31" s="618">
+      <c r="L31" s="640">
         <f>I31/H31</f>
         <v>0</v>
       </c>
-      <c r="M31" s="618">
+      <c r="M31" s="641">
         <f>J31/H31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="618">
+      <c r="N31" s="642">
         <f>K31/H31</f>
         <v>1</v>
       </c>
@@ -8918,34 +9008,34 @@
       <c r="C32" s="569"/>
       <c r="D32" s="569"/>
       <c r="E32" s="568"/>
-      <c r="F32" s="601" t="s">
+      <c r="F32" s="625" t="s">
         <v>387</v>
       </c>
-      <c r="G32" s="614">
+      <c r="G32" s="626">
         <v>44705</v>
       </c>
-      <c r="H32" s="617">
+      <c r="H32" s="627">
         <f>SUM(I32:K32)</f>
         <v>26</v>
       </c>
-      <c r="I32" s="617">
-        <v>0</v>
-      </c>
-      <c r="J32" s="617">
-        <v>0</v>
-      </c>
-      <c r="K32" s="617">
+      <c r="I32" s="627">
+        <v>0</v>
+      </c>
+      <c r="J32" s="627">
+        <v>0</v>
+      </c>
+      <c r="K32" s="627">
         <v>26</v>
       </c>
-      <c r="L32" s="618">
+      <c r="L32" s="640">
         <f>I32/H32</f>
         <v>0</v>
       </c>
-      <c r="M32" s="618">
+      <c r="M32" s="641">
         <f>J32/H32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="618">
+      <c r="N32" s="642">
         <f>K32/H32</f>
         <v>1</v>
       </c>
@@ -8956,32 +9046,32 @@
       <c r="C33" s="569"/>
       <c r="D33" s="569"/>
       <c r="E33" s="568"/>
-      <c r="F33" s="602"/>
-      <c r="G33" s="614">
+      <c r="F33" s="629"/>
+      <c r="G33" s="626">
         <v>44706</v>
       </c>
-      <c r="H33" s="617">
+      <c r="H33" s="627">
         <f>SUM(I33:K33)</f>
         <v>26</v>
       </c>
-      <c r="I33" s="617">
-        <v>0</v>
-      </c>
-      <c r="J33" s="617">
-        <v>0</v>
-      </c>
-      <c r="K33" s="617">
+      <c r="I33" s="627">
+        <v>0</v>
+      </c>
+      <c r="J33" s="627">
+        <v>0</v>
+      </c>
+      <c r="K33" s="627">
         <v>26</v>
       </c>
-      <c r="L33" s="618">
+      <c r="L33" s="640">
         <f>I33/H33</f>
         <v>0</v>
       </c>
-      <c r="M33" s="618">
+      <c r="M33" s="641">
         <f>J33/H33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="618">
+      <c r="N33" s="642">
         <f>K33/H33</f>
         <v>1</v>
       </c>
@@ -8992,32 +9082,32 @@
       <c r="C34" s="569"/>
       <c r="D34" s="569"/>
       <c r="E34" s="568"/>
-      <c r="F34" s="602"/>
-      <c r="G34" s="614">
+      <c r="F34" s="629"/>
+      <c r="G34" s="626">
         <v>44707</v>
       </c>
-      <c r="H34" s="617">
+      <c r="H34" s="627">
         <f>SUM(I34:K34)</f>
         <v>26</v>
       </c>
-      <c r="I34" s="617">
-        <v>0</v>
-      </c>
-      <c r="J34" s="617">
-        <v>0</v>
-      </c>
-      <c r="K34" s="617">
+      <c r="I34" s="627">
+        <v>0</v>
+      </c>
+      <c r="J34" s="627">
+        <v>0</v>
+      </c>
+      <c r="K34" s="627">
         <v>26</v>
       </c>
-      <c r="L34" s="618">
+      <c r="L34" s="640">
         <f>I34/H34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="618">
+      <c r="M34" s="641">
         <f>J34/H34</f>
         <v>0</v>
       </c>
-      <c r="N34" s="618">
+      <c r="N34" s="642">
         <f>K34/H34</f>
         <v>1</v>
       </c>
@@ -9028,32 +9118,32 @@
       <c r="C35" s="569"/>
       <c r="D35" s="569"/>
       <c r="E35" s="568"/>
-      <c r="F35" s="602"/>
-      <c r="G35" s="614">
+      <c r="F35" s="629"/>
+      <c r="G35" s="626">
         <v>44708</v>
       </c>
-      <c r="H35" s="617">
+      <c r="H35" s="627">
         <f>SUM(I35:K35)</f>
         <v>26</v>
       </c>
-      <c r="I35" s="617">
-        <v>0</v>
-      </c>
-      <c r="J35" s="617">
-        <v>0</v>
-      </c>
-      <c r="K35" s="617">
+      <c r="I35" s="627">
+        <v>0</v>
+      </c>
+      <c r="J35" s="627">
+        <v>0</v>
+      </c>
+      <c r="K35" s="627">
         <v>26</v>
       </c>
-      <c r="L35" s="618">
+      <c r="L35" s="640">
         <f>I35/H35</f>
         <v>0</v>
       </c>
-      <c r="M35" s="618">
+      <c r="M35" s="641">
         <f>J35/H35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="618">
+      <c r="N35" s="642">
         <f>K35/H35</f>
         <v>1</v>
       </c>
@@ -9064,32 +9154,32 @@
       <c r="C36" s="569"/>
       <c r="D36" s="569"/>
       <c r="E36" s="568"/>
-      <c r="F36" s="602"/>
-      <c r="G36" s="614">
+      <c r="F36" s="629"/>
+      <c r="G36" s="626">
         <v>44709</v>
       </c>
-      <c r="H36" s="617">
+      <c r="H36" s="627">
         <f>SUM(I36:K36)</f>
         <v>26</v>
       </c>
-      <c r="I36" s="617">
-        <v>0</v>
-      </c>
-      <c r="J36" s="617">
-        <v>0</v>
-      </c>
-      <c r="K36" s="617">
+      <c r="I36" s="627">
+        <v>0</v>
+      </c>
+      <c r="J36" s="627">
+        <v>0</v>
+      </c>
+      <c r="K36" s="627">
         <v>26</v>
       </c>
-      <c r="L36" s="618">
+      <c r="L36" s="640">
         <f>I36/H36</f>
         <v>0</v>
       </c>
-      <c r="M36" s="618">
+      <c r="M36" s="641">
         <f>J36/H36</f>
         <v>0</v>
       </c>
-      <c r="N36" s="618">
+      <c r="N36" s="642">
         <f>K36/H36</f>
         <v>1</v>
       </c>
@@ -9100,32 +9190,32 @@
       <c r="C37" s="569"/>
       <c r="D37" s="569"/>
       <c r="E37" s="568"/>
-      <c r="F37" s="602"/>
-      <c r="G37" s="614">
+      <c r="F37" s="629"/>
+      <c r="G37" s="626">
         <v>44710</v>
       </c>
-      <c r="H37" s="617">
+      <c r="H37" s="627">
         <f>SUM(I37:K37)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="617">
-        <v>0</v>
-      </c>
-      <c r="J37" s="617">
-        <v>0</v>
-      </c>
-      <c r="K37" s="617">
+      <c r="I37" s="627">
+        <v>0</v>
+      </c>
+      <c r="J37" s="627">
+        <v>0</v>
+      </c>
+      <c r="K37" s="627">
         <v>26</v>
       </c>
-      <c r="L37" s="618">
+      <c r="L37" s="640">
         <f>I37/H37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="618">
+      <c r="M37" s="641">
         <f>J37/H37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="618">
+      <c r="N37" s="642">
         <f>K37/H37</f>
         <v>1</v>
       </c>
@@ -9136,32 +9226,32 @@
       <c r="C38" s="569"/>
       <c r="D38" s="569"/>
       <c r="E38" s="568"/>
-      <c r="F38" s="603"/>
-      <c r="G38" s="614">
+      <c r="F38" s="630"/>
+      <c r="G38" s="626">
         <v>44711</v>
       </c>
-      <c r="H38" s="617">
+      <c r="H38" s="627">
         <f>SUM(I38:K38)</f>
         <v>26</v>
       </c>
-      <c r="I38" s="617">
-        <v>0</v>
-      </c>
-      <c r="J38" s="617">
-        <v>0</v>
-      </c>
-      <c r="K38" s="617">
+      <c r="I38" s="627">
+        <v>0</v>
+      </c>
+      <c r="J38" s="627">
+        <v>0</v>
+      </c>
+      <c r="K38" s="627">
         <v>26</v>
       </c>
-      <c r="L38" s="618">
+      <c r="L38" s="640">
         <f>I38/H38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="618">
+      <c r="M38" s="641">
         <f>J38/H38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="618">
+      <c r="N38" s="642">
         <f>K38/H38</f>
         <v>1</v>
       </c>
@@ -9172,34 +9262,34 @@
       <c r="C39" s="569"/>
       <c r="D39" s="569"/>
       <c r="E39" s="568"/>
-      <c r="F39" s="601" t="s">
+      <c r="F39" s="625" t="s">
         <v>388</v>
       </c>
-      <c r="G39" s="614">
+      <c r="G39" s="626">
         <v>44712</v>
       </c>
-      <c r="H39" s="617">
+      <c r="H39" s="627">
         <f>SUM(I39:K39)</f>
         <v>26</v>
       </c>
-      <c r="I39" s="617">
-        <v>0</v>
-      </c>
-      <c r="J39" s="617">
-        <v>0</v>
-      </c>
-      <c r="K39" s="617">
+      <c r="I39" s="627">
+        <v>0</v>
+      </c>
+      <c r="J39" s="627">
+        <v>0</v>
+      </c>
+      <c r="K39" s="627">
         <v>26</v>
       </c>
-      <c r="L39" s="618">
+      <c r="L39" s="640">
         <f>I39/H39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="618">
+      <c r="M39" s="641">
         <f>J39/H39</f>
         <v>0</v>
       </c>
-      <c r="N39" s="618">
+      <c r="N39" s="642">
         <f>K39/H39</f>
         <v>1</v>
       </c>
@@ -9210,32 +9300,32 @@
       <c r="C40" s="569"/>
       <c r="D40" s="569"/>
       <c r="E40" s="568"/>
-      <c r="F40" s="602"/>
-      <c r="G40" s="614">
+      <c r="F40" s="629"/>
+      <c r="G40" s="626">
         <v>44713</v>
       </c>
-      <c r="H40" s="617">
+      <c r="H40" s="627">
         <f>SUM(I40:K40)</f>
         <v>26</v>
       </c>
-      <c r="I40" s="617">
-        <v>0</v>
-      </c>
-      <c r="J40" s="617">
-        <v>0</v>
-      </c>
-      <c r="K40" s="617">
+      <c r="I40" s="627">
+        <v>0</v>
+      </c>
+      <c r="J40" s="627">
+        <v>0</v>
+      </c>
+      <c r="K40" s="627">
         <v>26</v>
       </c>
-      <c r="L40" s="618">
+      <c r="L40" s="640">
         <f>I40/H40</f>
         <v>0</v>
       </c>
-      <c r="M40" s="618">
+      <c r="M40" s="641">
         <f>J40/H40</f>
         <v>0</v>
       </c>
-      <c r="N40" s="618">
+      <c r="N40" s="642">
         <f>K40/H40</f>
         <v>1</v>
       </c>
@@ -9246,32 +9336,32 @@
       <c r="C41" s="569"/>
       <c r="D41" s="569"/>
       <c r="E41" s="568"/>
-      <c r="F41" s="602"/>
-      <c r="G41" s="614">
+      <c r="F41" s="629"/>
+      <c r="G41" s="626">
         <v>44714</v>
       </c>
-      <c r="H41" s="617">
+      <c r="H41" s="627">
         <f>SUM(I41:K41)</f>
         <v>26</v>
       </c>
-      <c r="I41" s="617">
-        <v>0</v>
-      </c>
-      <c r="J41" s="617">
-        <v>0</v>
-      </c>
-      <c r="K41" s="617">
+      <c r="I41" s="627">
+        <v>0</v>
+      </c>
+      <c r="J41" s="627">
+        <v>0</v>
+      </c>
+      <c r="K41" s="627">
         <v>26</v>
       </c>
-      <c r="L41" s="618">
+      <c r="L41" s="640">
         <f>I41/H41</f>
         <v>0</v>
       </c>
-      <c r="M41" s="618">
+      <c r="M41" s="641">
         <f>J41/H41</f>
         <v>0</v>
       </c>
-      <c r="N41" s="618">
+      <c r="N41" s="642">
         <f>K41/H41</f>
         <v>1</v>
       </c>
@@ -9282,32 +9372,32 @@
       <c r="C42" s="569"/>
       <c r="D42" s="569"/>
       <c r="E42" s="568"/>
-      <c r="F42" s="602"/>
-      <c r="G42" s="614">
+      <c r="F42" s="629"/>
+      <c r="G42" s="626">
         <v>44715</v>
       </c>
-      <c r="H42" s="617">
+      <c r="H42" s="627">
         <f>SUM(I42:K42)</f>
         <v>26</v>
       </c>
-      <c r="I42" s="617">
-        <v>0</v>
-      </c>
-      <c r="J42" s="617">
-        <v>0</v>
-      </c>
-      <c r="K42" s="617">
+      <c r="I42" s="627">
+        <v>0</v>
+      </c>
+      <c r="J42" s="627">
+        <v>0</v>
+      </c>
+      <c r="K42" s="627">
         <v>26</v>
       </c>
-      <c r="L42" s="618">
+      <c r="L42" s="640">
         <f>I42/H42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="618">
+      <c r="M42" s="641">
         <f>J42/H42</f>
         <v>0</v>
       </c>
-      <c r="N42" s="618">
+      <c r="N42" s="642">
         <f>K42/H42</f>
         <v>1</v>
       </c>
@@ -9318,32 +9408,32 @@
       <c r="C43" s="569"/>
       <c r="D43" s="569"/>
       <c r="E43" s="568"/>
-      <c r="F43" s="602"/>
-      <c r="G43" s="614">
+      <c r="F43" s="629"/>
+      <c r="G43" s="626">
         <v>44716</v>
       </c>
-      <c r="H43" s="617">
+      <c r="H43" s="627">
         <f>SUM(I43:K43)</f>
         <v>26</v>
       </c>
-      <c r="I43" s="617">
-        <v>0</v>
-      </c>
-      <c r="J43" s="617">
-        <v>0</v>
-      </c>
-      <c r="K43" s="617">
+      <c r="I43" s="627">
+        <v>0</v>
+      </c>
+      <c r="J43" s="627">
+        <v>0</v>
+      </c>
+      <c r="K43" s="627">
         <v>26</v>
       </c>
-      <c r="L43" s="618">
+      <c r="L43" s="640">
         <f>I43/H43</f>
         <v>0</v>
       </c>
-      <c r="M43" s="618">
+      <c r="M43" s="641">
         <f>J43/H43</f>
         <v>0</v>
       </c>
-      <c r="N43" s="618">
+      <c r="N43" s="642">
         <f>K43/H43</f>
         <v>1</v>
       </c>
@@ -9354,32 +9444,32 @@
       <c r="C44" s="569"/>
       <c r="D44" s="569"/>
       <c r="E44" s="568"/>
-      <c r="F44" s="602"/>
-      <c r="G44" s="614">
+      <c r="F44" s="629"/>
+      <c r="G44" s="626">
         <v>44717</v>
       </c>
-      <c r="H44" s="617">
+      <c r="H44" s="627">
         <f>SUM(I44:K44)</f>
         <v>26</v>
       </c>
-      <c r="I44" s="617">
-        <v>0</v>
-      </c>
-      <c r="J44" s="617">
-        <v>0</v>
-      </c>
-      <c r="K44" s="617">
+      <c r="I44" s="627">
+        <v>0</v>
+      </c>
+      <c r="J44" s="627">
+        <v>0</v>
+      </c>
+      <c r="K44" s="627">
         <v>26</v>
       </c>
-      <c r="L44" s="618">
+      <c r="L44" s="640">
         <f>I44/H44</f>
         <v>0</v>
       </c>
-      <c r="M44" s="618">
+      <c r="M44" s="641">
         <f>J44/H44</f>
         <v>0</v>
       </c>
-      <c r="N44" s="618">
+      <c r="N44" s="642">
         <f>K44/H44</f>
         <v>1</v>
       </c>
@@ -9390,32 +9480,32 @@
       <c r="C45" s="569"/>
       <c r="D45" s="569"/>
       <c r="E45" s="568"/>
-      <c r="F45" s="603"/>
-      <c r="G45" s="614">
+      <c r="F45" s="630"/>
+      <c r="G45" s="626">
         <v>44718</v>
       </c>
-      <c r="H45" s="617">
+      <c r="H45" s="627">
         <f>SUM(I45:K45)</f>
         <v>26</v>
       </c>
-      <c r="I45" s="617">
-        <v>0</v>
-      </c>
-      <c r="J45" s="617">
-        <v>0</v>
-      </c>
-      <c r="K45" s="617">
+      <c r="I45" s="627">
+        <v>0</v>
+      </c>
+      <c r="J45" s="627">
+        <v>0</v>
+      </c>
+      <c r="K45" s="627">
         <v>26</v>
       </c>
-      <c r="L45" s="618">
+      <c r="L45" s="640">
         <f>I45/H45</f>
         <v>0</v>
       </c>
-      <c r="M45" s="618">
+      <c r="M45" s="641">
         <f>J45/H45</f>
         <v>0</v>
       </c>
-      <c r="N45" s="618">
+      <c r="N45" s="642">
         <f>K45/H45</f>
         <v>1</v>
       </c>
@@ -9426,34 +9516,34 @@
       <c r="C46" s="569"/>
       <c r="D46" s="569"/>
       <c r="E46" s="568"/>
-      <c r="F46" s="601" t="s">
+      <c r="F46" s="625" t="s">
         <v>389</v>
       </c>
-      <c r="G46" s="614">
+      <c r="G46" s="626">
         <v>44719</v>
       </c>
-      <c r="H46" s="617">
+      <c r="H46" s="627">
         <f>SUM(I46:K46)</f>
         <v>26</v>
       </c>
-      <c r="I46" s="617">
-        <v>0</v>
-      </c>
-      <c r="J46" s="617">
-        <v>0</v>
-      </c>
-      <c r="K46" s="617">
+      <c r="I46" s="627">
+        <v>0</v>
+      </c>
+      <c r="J46" s="627">
+        <v>0</v>
+      </c>
+      <c r="K46" s="627">
         <v>26</v>
       </c>
-      <c r="L46" s="618">
+      <c r="L46" s="640">
         <f>I46/H46</f>
         <v>0</v>
       </c>
-      <c r="M46" s="618">
+      <c r="M46" s="641">
         <f>J46/H46</f>
         <v>0</v>
       </c>
-      <c r="N46" s="618">
+      <c r="N46" s="642">
         <f>K46/H46</f>
         <v>1</v>
       </c>
@@ -9464,32 +9554,32 @@
       <c r="C47" s="569"/>
       <c r="D47" s="569"/>
       <c r="E47" s="568"/>
-      <c r="F47" s="602"/>
-      <c r="G47" s="614">
+      <c r="F47" s="629"/>
+      <c r="G47" s="626">
         <v>44720</v>
       </c>
-      <c r="H47" s="617">
+      <c r="H47" s="627">
         <f>SUM(I47:K47)</f>
         <v>26</v>
       </c>
-      <c r="I47" s="617">
-        <v>0</v>
-      </c>
-      <c r="J47" s="617">
-        <v>0</v>
-      </c>
-      <c r="K47" s="617">
+      <c r="I47" s="627">
+        <v>0</v>
+      </c>
+      <c r="J47" s="627">
+        <v>0</v>
+      </c>
+      <c r="K47" s="627">
         <v>26</v>
       </c>
-      <c r="L47" s="618">
+      <c r="L47" s="640">
         <f>I47/H47</f>
         <v>0</v>
       </c>
-      <c r="M47" s="618">
+      <c r="M47" s="641">
         <f>J47/H47</f>
         <v>0</v>
       </c>
-      <c r="N47" s="618">
+      <c r="N47" s="642">
         <f>K47/H47</f>
         <v>1</v>
       </c>
@@ -9500,32 +9590,32 @@
       <c r="C48" s="569"/>
       <c r="D48" s="569"/>
       <c r="E48" s="568"/>
-      <c r="F48" s="602"/>
-      <c r="G48" s="614">
+      <c r="F48" s="629"/>
+      <c r="G48" s="626">
         <v>44721</v>
       </c>
-      <c r="H48" s="617">
+      <c r="H48" s="627">
         <f>SUM(I48:K48)</f>
         <v>26</v>
       </c>
-      <c r="I48" s="617">
-        <v>0</v>
-      </c>
-      <c r="J48" s="617">
-        <v>0</v>
-      </c>
-      <c r="K48" s="617">
+      <c r="I48" s="627">
+        <v>0</v>
+      </c>
+      <c r="J48" s="627">
+        <v>0</v>
+      </c>
+      <c r="K48" s="627">
         <v>26</v>
       </c>
-      <c r="L48" s="618">
+      <c r="L48" s="640">
         <f>I48/H48</f>
         <v>0</v>
       </c>
-      <c r="M48" s="618">
+      <c r="M48" s="641">
         <f>J48/H48</f>
         <v>0</v>
       </c>
-      <c r="N48" s="618">
+      <c r="N48" s="642">
         <f>K48/H48</f>
         <v>1</v>
       </c>
@@ -9536,32 +9626,32 @@
       <c r="C49" s="569"/>
       <c r="D49" s="569"/>
       <c r="E49" s="568"/>
-      <c r="F49" s="602"/>
-      <c r="G49" s="614">
+      <c r="F49" s="629"/>
+      <c r="G49" s="626">
         <v>44722</v>
       </c>
-      <c r="H49" s="617">
+      <c r="H49" s="627">
         <f>SUM(I49:K49)</f>
         <v>26</v>
       </c>
-      <c r="I49" s="617">
-        <v>0</v>
-      </c>
-      <c r="J49" s="617">
-        <v>0</v>
-      </c>
-      <c r="K49" s="617">
+      <c r="I49" s="627">
+        <v>0</v>
+      </c>
+      <c r="J49" s="627">
+        <v>0</v>
+      </c>
+      <c r="K49" s="627">
         <v>26</v>
       </c>
-      <c r="L49" s="618">
+      <c r="L49" s="640">
         <f>I49/H49</f>
         <v>0</v>
       </c>
-      <c r="M49" s="618">
+      <c r="M49" s="641">
         <f>J49/H49</f>
         <v>0</v>
       </c>
-      <c r="N49" s="618">
+      <c r="N49" s="642">
         <f>K49/H49</f>
         <v>1</v>
       </c>
@@ -9572,32 +9662,32 @@
       <c r="C50" s="569"/>
       <c r="D50" s="569"/>
       <c r="E50" s="568"/>
-      <c r="F50" s="602"/>
-      <c r="G50" s="614">
+      <c r="F50" s="629"/>
+      <c r="G50" s="626">
         <v>44723</v>
       </c>
-      <c r="H50" s="617">
+      <c r="H50" s="627">
         <f>SUM(I50:K50)</f>
         <v>26</v>
       </c>
-      <c r="I50" s="617">
-        <v>0</v>
-      </c>
-      <c r="J50" s="617">
-        <v>0</v>
-      </c>
-      <c r="K50" s="617">
+      <c r="I50" s="627">
+        <v>0</v>
+      </c>
+      <c r="J50" s="627">
+        <v>0</v>
+      </c>
+      <c r="K50" s="627">
         <v>26</v>
       </c>
-      <c r="L50" s="618">
+      <c r="L50" s="640">
         <f>I50/H50</f>
         <v>0</v>
       </c>
-      <c r="M50" s="618">
+      <c r="M50" s="641">
         <f>J50/H50</f>
         <v>0</v>
       </c>
-      <c r="N50" s="618">
+      <c r="N50" s="642">
         <f>K50/H50</f>
         <v>1</v>
       </c>
@@ -9608,32 +9698,32 @@
       <c r="C51" s="569"/>
       <c r="D51" s="569"/>
       <c r="E51" s="568"/>
-      <c r="F51" s="602"/>
-      <c r="G51" s="614">
+      <c r="F51" s="629"/>
+      <c r="G51" s="626">
         <v>44724</v>
       </c>
-      <c r="H51" s="617">
+      <c r="H51" s="627">
         <f>SUM(I51:K51)</f>
         <v>26</v>
       </c>
-      <c r="I51" s="617">
-        <v>0</v>
-      </c>
-      <c r="J51" s="617">
-        <v>0</v>
-      </c>
-      <c r="K51" s="617">
+      <c r="I51" s="627">
+        <v>0</v>
+      </c>
+      <c r="J51" s="627">
+        <v>0</v>
+      </c>
+      <c r="K51" s="627">
         <v>26</v>
       </c>
-      <c r="L51" s="618">
+      <c r="L51" s="640">
         <f>I51/H51</f>
         <v>0</v>
       </c>
-      <c r="M51" s="618">
+      <c r="M51" s="641">
         <f>J51/H51</f>
         <v>0</v>
       </c>
-      <c r="N51" s="618">
+      <c r="N51" s="642">
         <f>K51/H51</f>
         <v>1</v>
       </c>
@@ -9644,32 +9734,32 @@
       <c r="C52" s="569"/>
       <c r="D52" s="569"/>
       <c r="E52" s="568"/>
-      <c r="F52" s="603"/>
-      <c r="G52" s="614">
+      <c r="F52" s="630"/>
+      <c r="G52" s="626">
         <v>44725</v>
       </c>
-      <c r="H52" s="617">
+      <c r="H52" s="627">
         <f>SUM(I52:K52)</f>
         <v>26</v>
       </c>
-      <c r="I52" s="617">
-        <v>0</v>
-      </c>
-      <c r="J52" s="617">
-        <v>0</v>
-      </c>
-      <c r="K52" s="617">
+      <c r="I52" s="627">
+        <v>0</v>
+      </c>
+      <c r="J52" s="627">
+        <v>0</v>
+      </c>
+      <c r="K52" s="627">
         <v>26</v>
       </c>
-      <c r="L52" s="618">
+      <c r="L52" s="640">
         <f>I52/H52</f>
         <v>0</v>
       </c>
-      <c r="M52" s="618">
+      <c r="M52" s="641">
         <f>J52/H52</f>
         <v>0</v>
       </c>
-      <c r="N52" s="618">
+      <c r="N52" s="642">
         <f>K52/H52</f>
         <v>1</v>
       </c>
@@ -9678,7 +9768,7 @@
       <c r="F53" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="B4:B11"/>
@@ -9686,9 +9776,8 @@
     <mergeCell ref="F11:F17"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="F18:F24"/>
-    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B19:B28"/>
     <mergeCell ref="F25:F31"/>
-    <mergeCell ref="B28:B29"/>
     <mergeCell ref="F32:F38"/>
     <mergeCell ref="F39:F45"/>
     <mergeCell ref="F46:F52"/>

--- a/Project_Design/프로젝트 공정관리/프로젝트 공정 관리.xlsx
+++ b/Project_Design/프로젝트 공정관리/프로젝트 공정 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="480" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 기능 정의서" sheetId="1" r:id="rId1"/>
@@ -1846,7 +1846,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2116,30 +2116,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.099980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -2147,12 +2123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -4706,40 +4676,40 @@
     <xf numFmtId="0" fontId="98" fillId="42" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="45" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="46" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="46" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="47" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="47" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="47" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="47" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="48" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="99" fillId="49" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="99" fillId="50" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="99" fillId="51" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="32" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="38" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="38" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="17" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="20" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="99" fillId="45" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="99" fillId="46" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="99" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6960,12 +6930,12 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="30" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="13" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="13" ySplit="3" topLeftCell="O45" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -8439,25 +8409,25 @@
         <v>26</v>
       </c>
       <c r="I18" s="627">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18" s="627">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="627">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L18" s="640">
         <f>I18/H18</f>
-        <v>0</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="M18" s="641">
         <f>J18/H18</f>
-        <v>0</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="N18" s="642">
         <f>K18/H18</f>
-        <v>1</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20.000000" customHeight="1">
@@ -8483,25 +8453,25 @@
         <v>26</v>
       </c>
       <c r="I19" s="627">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" s="627">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19" s="627">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L19" s="640">
         <f>I19/H19</f>
-        <v>0</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="M19" s="641">
         <f>J19/H19</f>
-        <v>0</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="N19" s="642">
         <f>K19/H19</f>
-        <v>1</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.000000" customHeight="1">
@@ -8525,25 +8495,25 @@
         <v>26</v>
       </c>
       <c r="I20" s="627">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J20" s="627">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="627">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L20" s="640">
         <f>I20/H20</f>
-        <v>0</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="M20" s="641">
         <f>J20/H20</f>
-        <v>0</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="N20" s="642">
         <f>K20/H20</f>
-        <v>1</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.000000" customHeight="1">
@@ -8567,25 +8537,25 @@
         <v>26</v>
       </c>
       <c r="I21" s="627">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J21" s="627">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="627">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L21" s="640">
         <f>I21/H21</f>
-        <v>0</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="M21" s="641">
         <f>J21/H21</f>
-        <v>0</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="N21" s="642">
         <f>K21/H21</f>
-        <v>1</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.000000" customHeight="1">
@@ -8609,25 +8579,25 @@
         <v>26</v>
       </c>
       <c r="I22" s="627">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J22" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="627">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L22" s="640">
         <f>I22/H22</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M22" s="641">
         <f>J22/H22</f>
-        <v>0</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="N22" s="642">
         <f>K22/H22</f>
-        <v>1</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="20.000000" customHeight="1">
@@ -8651,25 +8621,25 @@
         <v>26</v>
       </c>
       <c r="I23" s="627">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J23" s="627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="627">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L23" s="640">
         <f>I23/H23</f>
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="M23" s="641">
         <f>J23/H23</f>
-        <v>0</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="N23" s="642">
         <f>K23/H23</f>
-        <v>1</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.000000" customHeight="1">
@@ -8693,25 +8663,25 @@
         <v>26</v>
       </c>
       <c r="I24" s="627">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J24" s="627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="627">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L24" s="640">
         <f>I24/H24</f>
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="M24" s="641">
         <f>J24/H24</f>
-        <v>0</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="N24" s="642">
         <f>K24/H24</f>
-        <v>1</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.000000" customHeight="1">
@@ -8737,25 +8707,25 @@
         <v>26</v>
       </c>
       <c r="I25" s="627">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J25" s="627">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K25" s="627">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="L25" s="640">
         <f>I25/H25</f>
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="M25" s="641">
         <f>J25/H25</f>
-        <v>0</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="N25" s="642">
         <f>K25/H25</f>
-        <v>1</v>
+        <v>0.269230769230769</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="20.000000" customHeight="1">
@@ -8779,25 +8749,25 @@
         <v>26</v>
       </c>
       <c r="I26" s="627">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J26" s="627">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K26" s="627">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L26" s="640">
         <f>I26/H26</f>
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="M26" s="641">
         <f>J26/H26</f>
-        <v>0</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="N26" s="642">
         <f>K26/H26</f>
-        <v>1</v>
+        <v>0.230769230769231</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="20.000000" customHeight="1">
@@ -8821,25 +8791,25 @@
         <v>26</v>
       </c>
       <c r="I27" s="627">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J27" s="627">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" s="627">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L27" s="640">
         <f>I27/H27</f>
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="M27" s="641">
         <f>J27/H27</f>
-        <v>0</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="N27" s="642">
         <f>K27/H27</f>
-        <v>1</v>
+        <v>0.192307692307692</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="20.000000" customHeight="1">
@@ -8863,25 +8833,25 @@
         <v>26</v>
       </c>
       <c r="I28" s="627">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J28" s="627">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K28" s="627">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L28" s="640">
         <f>I28/H28</f>
-        <v>0</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="M28" s="641">
         <f>J28/H28</f>
-        <v>0</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="N28" s="642">
         <f>K28/H28</f>
-        <v>1</v>
+        <v>0.192307692307692</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20.000000" customHeight="1">
@@ -8909,25 +8879,25 @@
         <v>26</v>
       </c>
       <c r="I29" s="627">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J29" s="627">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K29" s="627">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L29" s="640">
         <f>I29/H29</f>
-        <v>0</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="M29" s="641">
         <f>J29/H29</f>
-        <v>0</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="N29" s="642">
         <f>K29/H29</f>
-        <v>1</v>
+        <v>0.192307692307692</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="20.000000" customHeight="1">
@@ -8945,25 +8915,25 @@
         <v>26</v>
       </c>
       <c r="I30" s="627">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J30" s="627">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30" s="627">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L30" s="640">
         <f>I30/H30</f>
-        <v>0</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="M30" s="641">
         <f>J30/H30</f>
-        <v>0</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="N30" s="642">
         <f>K30/H30</f>
-        <v>1</v>
+        <v>0.192307692307692</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="20.000000" customHeight="1">
@@ -8981,25 +8951,25 @@
         <v>26</v>
       </c>
       <c r="I31" s="627">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J31" s="627">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K31" s="627">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L31" s="640">
         <f>I31/H31</f>
-        <v>0</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="M31" s="641">
         <f>J31/H31</f>
-        <v>0</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="N31" s="642">
         <f>K31/H31</f>
-        <v>1</v>
+        <v>0.192307692307692</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="20.000000" customHeight="1">
@@ -9019,25 +8989,25 @@
         <v>26</v>
       </c>
       <c r="I32" s="627">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J32" s="627">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K32" s="627">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L32" s="640">
         <f>I32/H32</f>
-        <v>0</v>
+        <v>0.653846153846154</v>
       </c>
       <c r="M32" s="641">
         <f>J32/H32</f>
-        <v>0</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="N32" s="642">
         <f>K32/H32</f>
-        <v>1</v>
+        <v>0.192307692307692</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="20.000000" customHeight="1">
@@ -9055,25 +9025,25 @@
         <v>26</v>
       </c>
       <c r="I33" s="627">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J33" s="627">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="627">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="L33" s="640">
         <f>I33/H33</f>
-        <v>0</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="M33" s="641">
         <f>J33/H33</f>
-        <v>0</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="N33" s="642">
         <f>K33/H33</f>
-        <v>1</v>
+        <v>0.153846153846154</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="20.000000" customHeight="1">
@@ -9091,25 +9061,25 @@
         <v>26</v>
       </c>
       <c r="I34" s="627">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J34" s="627">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="627">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L34" s="640">
         <f>I34/H34</f>
-        <v>0</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="M34" s="641">
         <f>J34/H34</f>
-        <v>0</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="N34" s="642">
         <f>K34/H34</f>
-        <v>1</v>
+        <v>0.192307692307692</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="20.000000" customHeight="1">
@@ -9127,25 +9097,25 @@
         <v>26</v>
       </c>
       <c r="I35" s="627">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J35" s="627">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K35" s="627">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="L35" s="640">
         <f>I35/H35</f>
-        <v>0</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="M35" s="641">
         <f>J35/H35</f>
-        <v>0</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="N35" s="642">
         <f>K35/H35</f>
-        <v>1</v>
+        <v>0.153846153846154</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="20.000000" customHeight="1">
@@ -9163,25 +9133,25 @@
         <v>26</v>
       </c>
       <c r="I36" s="627">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J36" s="627">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K36" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L36" s="640">
         <f>I36/H36</f>
-        <v>0</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="M36" s="641">
         <f>J36/H36</f>
-        <v>0</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="N36" s="642">
         <f>K36/H36</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="20.000000" customHeight="1">
@@ -9199,25 +9169,25 @@
         <v>26</v>
       </c>
       <c r="I37" s="627">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J37" s="627">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K37" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L37" s="640">
         <f>I37/H37</f>
-        <v>0</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="M37" s="641">
         <f>J37/H37</f>
-        <v>0</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="N37" s="642">
         <f>K37/H37</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="20.000000" customHeight="1">
@@ -9235,25 +9205,25 @@
         <v>26</v>
       </c>
       <c r="I38" s="627">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J38" s="627">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K38" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L38" s="640">
         <f>I38/H38</f>
-        <v>0</v>
+        <v>0.730769230769231</v>
       </c>
       <c r="M38" s="641">
         <f>J38/H38</f>
-        <v>0</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="N38" s="642">
         <f>K38/H38</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="20.000000" customHeight="1">
@@ -9273,25 +9243,25 @@
         <v>26</v>
       </c>
       <c r="I39" s="627">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J39" s="627">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K39" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L39" s="640">
         <f>I39/H39</f>
-        <v>0</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="M39" s="641">
         <f>J39/H39</f>
-        <v>0</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="N39" s="642">
         <f>K39/H39</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="20.000000" customHeight="1">
@@ -9309,25 +9279,25 @@
         <v>26</v>
       </c>
       <c r="I40" s="627">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J40" s="627">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L40" s="640">
         <f>I40/H40</f>
-        <v>0</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="M40" s="641">
         <f>J40/H40</f>
-        <v>0</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="N40" s="642">
         <f>K40/H40</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="20.000000" customHeight="1">
@@ -9345,25 +9315,25 @@
         <v>26</v>
       </c>
       <c r="I41" s="627">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J41" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L41" s="640">
         <f>I41/H41</f>
-        <v>0</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="M41" s="641">
         <f>J41/H41</f>
-        <v>0</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="N41" s="642">
         <f>K41/H41</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="20.000000" customHeight="1">
@@ -9381,25 +9351,25 @@
         <v>26</v>
       </c>
       <c r="I42" s="627">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J42" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L42" s="640">
         <f>I42/H42</f>
-        <v>0</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="M42" s="641">
         <f>J42/H42</f>
-        <v>0</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="N42" s="642">
         <f>K42/H42</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="20.000000" customHeight="1">
@@ -9417,25 +9387,25 @@
         <v>26</v>
       </c>
       <c r="I43" s="627">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J43" s="627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L43" s="640">
         <f>I43/H43</f>
-        <v>0</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="M43" s="641">
         <f>J43/H43</f>
-        <v>0</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="N43" s="642">
         <f>K43/H43</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="20.000000" customHeight="1">
@@ -9453,25 +9423,25 @@
         <v>26</v>
       </c>
       <c r="I44" s="627">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J44" s="627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="627">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L44" s="640">
         <f>I44/H44</f>
-        <v>0</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="M44" s="641">
         <f>J44/H44</f>
-        <v>0</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="N44" s="642">
         <f>K44/H44</f>
-        <v>1</v>
+        <v>0.0769230769230769</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="20.000000" customHeight="1">
@@ -9489,25 +9459,25 @@
         <v>26</v>
       </c>
       <c r="I45" s="627">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J45" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" s="627">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L45" s="640">
         <f>I45/H45</f>
-        <v>0</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="M45" s="641">
         <f>J45/H45</f>
-        <v>0</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="N45" s="642">
         <f>K45/H45</f>
-        <v>1</v>
+        <v>0.0384615384615385</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="20.000000" customHeight="1">
@@ -9527,25 +9497,25 @@
         <v>26</v>
       </c>
       <c r="I46" s="627">
+        <v>24</v>
+      </c>
+      <c r="J46" s="627">
+        <v>2</v>
+      </c>
+      <c r="K46" s="627">
         <v>0</v>
-      </c>
-      <c r="J46" s="627">
-        <v>0</v>
-      </c>
-      <c r="K46" s="627">
-        <v>26</v>
       </c>
       <c r="L46" s="640">
         <f>I46/H46</f>
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="M46" s="641">
         <f>J46/H46</f>
-        <v>0</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="N46" s="642">
         <f>K46/H46</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="20.000000" customHeight="1">
@@ -9563,25 +9533,25 @@
         <v>26</v>
       </c>
       <c r="I47" s="627">
+        <v>25</v>
+      </c>
+      <c r="J47" s="627">
+        <v>1</v>
+      </c>
+      <c r="K47" s="627">
         <v>0</v>
-      </c>
-      <c r="J47" s="627">
-        <v>0</v>
-      </c>
-      <c r="K47" s="627">
-        <v>26</v>
       </c>
       <c r="L47" s="640">
         <f>I47/H47</f>
-        <v>0</v>
+        <v>0.961538461538462</v>
       </c>
       <c r="M47" s="641">
         <f>J47/H47</f>
-        <v>0</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="N47" s="642">
         <f>K47/H47</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.000000" customHeight="1">
@@ -9599,17 +9569,17 @@
         <v>26</v>
       </c>
       <c r="I48" s="627">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J48" s="627">
         <v>0</v>
       </c>
       <c r="K48" s="627">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L48" s="640">
         <f>I48/H48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="641">
         <f>J48/H48</f>
@@ -9617,7 +9587,7 @@
       </c>
       <c r="N48" s="642">
         <f>K48/H48</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="20.000000" customHeight="1">
@@ -9635,17 +9605,17 @@
         <v>26</v>
       </c>
       <c r="I49" s="627">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J49" s="627">
         <v>0</v>
       </c>
       <c r="K49" s="627">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L49" s="640">
         <f>I49/H49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="641">
         <f>J49/H49</f>
@@ -9653,7 +9623,7 @@
       </c>
       <c r="N49" s="642">
         <f>K49/H49</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="20.000000" customHeight="1">
@@ -9671,17 +9641,17 @@
         <v>26</v>
       </c>
       <c r="I50" s="627">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J50" s="627">
         <v>0</v>
       </c>
       <c r="K50" s="627">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L50" s="640">
         <f>I50/H50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="641">
         <f>J50/H50</f>
@@ -9689,7 +9659,7 @@
       </c>
       <c r="N50" s="642">
         <f>K50/H50</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="20.000000" customHeight="1">
@@ -9707,17 +9677,17 @@
         <v>26</v>
       </c>
       <c r="I51" s="627">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J51" s="627">
         <v>0</v>
       </c>
       <c r="K51" s="627">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L51" s="640">
         <f>I51/H51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="641">
         <f>J51/H51</f>
@@ -9725,7 +9695,7 @@
       </c>
       <c r="N51" s="642">
         <f>K51/H51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="20.000000" customHeight="1">
@@ -9743,17 +9713,17 @@
         <v>26</v>
       </c>
       <c r="I52" s="627">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J52" s="627">
         <v>0</v>
       </c>
       <c r="K52" s="627">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L52" s="640">
         <f>I52/H52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="641">
         <f>J52/H52</f>
@@ -9761,7 +9731,7 @@
       </c>
       <c r="N52" s="642">
         <f>K52/H52</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="20.000000" customHeight="1">

--- a/Project_Design/프로젝트 공정관리/프로젝트 공정 관리.xlsx
+++ b/Project_Design/프로젝트 공정관리/프로젝트 공정 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="470" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 기능 정의서" sheetId="1" r:id="rId1"/>
@@ -6931,11 +6931,11 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView topLeftCell="B1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="13" ySplit="3" topLeftCell="O45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="3" topLeftCell="O36" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -9530,24 +9530,24 @@
       </c>
       <c r="H47" s="627">
         <f>SUM(I47:K47)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I47" s="627">
         <v>25</v>
       </c>
       <c r="J47" s="627">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" s="627">
         <v>0</v>
       </c>
       <c r="L47" s="640">
         <f>I47/H47</f>
-        <v>0.961538461538462</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="M47" s="641">
         <f>J47/H47</f>
-        <v>0.0384615384615385</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="N47" s="642">
         <f>K47/H47</f>
@@ -9566,24 +9566,24 @@
       </c>
       <c r="H48" s="627">
         <f>SUM(I48:K48)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I48" s="627">
         <v>26</v>
       </c>
       <c r="J48" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="627">
         <v>0</v>
       </c>
       <c r="L48" s="640">
         <f>I48/H48</f>
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M48" s="641">
         <f>J48/H48</f>
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="N48" s="642">
         <f>K48/H48</f>
@@ -9602,24 +9602,24 @@
       </c>
       <c r="H49" s="627">
         <f>SUM(I49:K49)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I49" s="627">
         <v>26</v>
       </c>
       <c r="J49" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" s="627">
         <v>0</v>
       </c>
       <c r="L49" s="640">
         <f>I49/H49</f>
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M49" s="641">
         <f>J49/H49</f>
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="N49" s="642">
         <f>K49/H49</f>
@@ -9638,24 +9638,24 @@
       </c>
       <c r="H50" s="627">
         <f>SUM(I50:K50)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I50" s="627">
         <v>26</v>
       </c>
       <c r="J50" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" s="627">
         <v>0</v>
       </c>
       <c r="L50" s="640">
         <f>I50/H50</f>
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M50" s="641">
         <f>J50/H50</f>
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="N50" s="642">
         <f>K50/H50</f>
@@ -9674,24 +9674,24 @@
       </c>
       <c r="H51" s="627">
         <f>SUM(I51:K51)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I51" s="627">
         <v>26</v>
       </c>
       <c r="J51" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" s="627">
         <v>0</v>
       </c>
       <c r="L51" s="640">
         <f>I51/H51</f>
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M51" s="641">
         <f>J51/H51</f>
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="N51" s="642">
         <f>K51/H51</f>
@@ -9710,24 +9710,24 @@
       </c>
       <c r="H52" s="627">
         <f>SUM(I52:K52)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I52" s="627">
         <v>26</v>
       </c>
       <c r="J52" s="627">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" s="627">
         <v>0</v>
       </c>
       <c r="L52" s="640">
         <f>I52/H52</f>
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M52" s="641">
         <f>J52/H52</f>
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="N52" s="642">
         <f>K52/H52</f>
